--- a/inst/application/www/Output_Selection_template.xlsx
+++ b/inst/application/www/Output_Selection_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Datastorm\Documents\git\antaresVizMedTSO\inst\application\www\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BenoitThieurmel\Documents\git\antaresVizMedTSO\inst\application\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC9B452-FF9C-44AB-8064-BED359CC7779}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21F68D5-F414-485D-9D82-20473F47E4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{D77C83E6-B695-4B37-B3DE-F053925C20A4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D77C83E6-B695-4B37-B3DE-F053925C20A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual_Selection" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="287">
   <si>
     <t>Links</t>
   </si>
@@ -518,135 +518,9 @@
     <t>Areas_Districts</t>
   </si>
   <si>
-    <t>nuclear_nuclear</t>
-  </si>
-  <si>
-    <t>lignite_old 1</t>
-  </si>
-  <si>
-    <t>lignite_old 2</t>
-  </si>
-  <si>
-    <t>lignite_new</t>
-  </si>
-  <si>
-    <t>lignite_ccs</t>
-  </si>
-  <si>
-    <t>hard coal_old 1</t>
-  </si>
-  <si>
-    <t>hard coal_old 2</t>
-  </si>
-  <si>
-    <t>hard coal_new</t>
-  </si>
-  <si>
-    <t>hard coal_ccs</t>
-  </si>
-  <si>
-    <t>gas_conventional old 1</t>
-  </si>
-  <si>
-    <t>gas_conventional old 2</t>
-  </si>
-  <si>
-    <t>gas_ccgt old 1</t>
-  </si>
-  <si>
-    <t>gas_ccgt old 2</t>
-  </si>
-  <si>
-    <t>gas_ccgt present 1</t>
-  </si>
-  <si>
-    <t>gas_ccgt present 2</t>
-  </si>
-  <si>
-    <t>gas_ccgt new</t>
-  </si>
-  <si>
-    <t>gas_ccgt ccs</t>
-  </si>
-  <si>
-    <t>gas_ocgt old</t>
-  </si>
-  <si>
-    <t>gas_ocgt new</t>
-  </si>
-  <si>
-    <t>light oil_light oil</t>
-  </si>
-  <si>
-    <t>heavy oil_old 1</t>
-  </si>
-  <si>
-    <t>heavy oil_old 2</t>
-  </si>
-  <si>
-    <t>oil shale_old</t>
-  </si>
-  <si>
-    <t>oil shale_new</t>
-  </si>
-  <si>
-    <t>H. ROR</t>
-  </si>
-  <si>
-    <t>H. STOR</t>
-  </si>
-  <si>
-    <t>WIND</t>
-  </si>
-  <si>
-    <t>SOLAR</t>
-  </si>
-  <si>
-    <t>MISC. NDG</t>
-  </si>
-  <si>
-    <t>lignite_bio</t>
-  </si>
-  <si>
-    <t>hard coal_bio</t>
-  </si>
-  <si>
-    <t>gas_bio</t>
-  </si>
-  <si>
-    <t>light oil_bio</t>
-  </si>
-  <si>
-    <t>heavy oil_bio</t>
-  </si>
-  <si>
-    <t>oil shale_bio</t>
-  </si>
-  <si>
-    <t>LOAD</t>
-  </si>
-  <si>
-    <t>BALANCE</t>
-  </si>
-  <si>
-    <t>SPIL. ENRG</t>
-  </si>
-  <si>
-    <t>UNSP. ENRG</t>
-  </si>
-  <si>
-    <t>MRG. PRICE</t>
-  </si>
-  <si>
     <t>Market_Data_Code</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>Nuclear [MW]</t>
   </si>
   <si>
@@ -737,75 +611,36 @@
     <t>Oil shale biofuel [MW]</t>
   </si>
   <si>
-    <t>OV. COST</t>
-  </si>
-  <si>
     <t>Overall cost [€]</t>
   </si>
   <si>
-    <t>(= operating cost + unsupplied energy cost + spilled energy cost)</t>
-  </si>
-  <si>
-    <t>OP. COST</t>
-  </si>
-  <si>
     <t>Operating Cost [€]</t>
   </si>
   <si>
-    <t>(= Proportional cost + Non-Proportional cost)</t>
-  </si>
-  <si>
-    <t>NP COST</t>
-  </si>
-  <si>
     <t>Non Proportional costs [€]</t>
   </si>
   <si>
-    <t>Non Proportional costs of the dispatchable Thermal plants (start-up and fixed cost)</t>
-  </si>
-  <si>
     <t>Marginal Price [€/MWh]</t>
   </si>
   <si>
-    <t>incl. unsupplied energy cost and spilled energy cost</t>
-  </si>
-  <si>
-    <t>CO2 EMIS.</t>
-  </si>
-  <si>
     <t>CO2 emissions [tCO2]</t>
   </si>
   <si>
     <t>Balance [MW]</t>
   </si>
   <si>
-    <t>ROW BAL.</t>
-  </si>
-  <si>
     <t>RoW Balance [MW]</t>
   </si>
   <si>
-    <t>Balance with areas outside the modeled system</t>
-  </si>
-  <si>
     <t>Pump Storage (turbine) [MW]</t>
   </si>
   <si>
-    <t>if value is positive ; doit inclure la suppresion du nœud virtuel Turbine</t>
-  </si>
-  <si>
     <t>Pump Storage (pump) [MW]</t>
   </si>
   <si>
-    <t>if value is negative ; doit inclure la suppresion du nœud virtuel Turbine</t>
-  </si>
-  <si>
     <t>Others renewable [MW]</t>
   </si>
   <si>
-    <t>eq. Misc. Gen (CHP+BioMass+Biogas+Waste+Geothermal+other)</t>
-  </si>
-  <si>
     <t>Demand [MW]</t>
   </si>
   <si>
@@ -815,54 +650,27 @@
     <t>Wind generation [MW]</t>
   </si>
   <si>
-    <t>incl. Onshore and Offshore</t>
-  </si>
-  <si>
     <t>Solar generation [MW]</t>
   </si>
   <si>
-    <t>incl. PV and Thermal</t>
-  </si>
-  <si>
-    <t>NUCLEAR</t>
-  </si>
-  <si>
     <t>Nuclear generation [MW]</t>
   </si>
   <si>
-    <t>COAL</t>
-  </si>
-  <si>
     <t>Coal generation [MW]</t>
   </si>
   <si>
-    <t>LIGNITE</t>
-  </si>
-  <si>
     <t>Lignite generation [MW]</t>
   </si>
   <si>
-    <t>GAS</t>
-  </si>
-  <si>
     <t>Gas generation [MW]</t>
   </si>
   <si>
-    <t>OIL</t>
-  </si>
-  <si>
     <t>Oil generation [MW]</t>
   </si>
   <si>
-    <t>MIX. FUEL</t>
-  </si>
-  <si>
     <t>Mix Fuel generation [MW]</t>
   </si>
   <si>
-    <t>MISC. DTG</t>
-  </si>
-  <si>
     <t>Other Fuel generation [MW]</t>
   </si>
   <si>
@@ -875,56 +683,224 @@
     <t>Dumped Energy [MW]</t>
   </si>
   <si>
-    <t>LOLD</t>
-  </si>
-  <si>
     <t>Loss of Load Duration [h]</t>
   </si>
   <si>
-    <t>LOLP</t>
-  </si>
-  <si>
     <t>Loss of Load Probability [%]</t>
   </si>
   <si>
-    <t>AVL DTG</t>
-  </si>
-  <si>
     <t>Available Thermal Generation [MW]</t>
   </si>
   <si>
-    <t>DTG MRG</t>
-  </si>
-  <si>
     <t>Margin on Thermal Units [MW]</t>
   </si>
   <si>
-    <t>MAX MRG</t>
-  </si>
-  <si>
     <t>Maximum Margin [MW]</t>
   </si>
   <si>
     <t>NODU</t>
   </si>
   <si>
-    <t>Cluster</t>
-  </si>
-  <si>
-    <t>ANTARES_naming</t>
-  </si>
-  <si>
-    <t>PSP_TURB</t>
-  </si>
-  <si>
-    <t>PSP_PUMP</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>cluster - nuclear_nuclear</t>
+  </si>
+  <si>
+    <t>cluster - hard coal_old 1</t>
+  </si>
+  <si>
+    <t>cluster - hard coal_old 2</t>
+  </si>
+  <si>
+    <t>cluster - hard coal_new</t>
+  </si>
+  <si>
+    <t>cluster - hard coal_ccs</t>
+  </si>
+  <si>
+    <t>cluster - lignite_old 1</t>
+  </si>
+  <si>
+    <t>cluster - lignite_old 2</t>
+  </si>
+  <si>
+    <t>cluster - lignite_new</t>
+  </si>
+  <si>
+    <t>cluster - lignite_ccs</t>
+  </si>
+  <si>
+    <t>cluster - gas_conventional old 1</t>
+  </si>
+  <si>
+    <t>cluster - gas_conventional old 2</t>
+  </si>
+  <si>
+    <t>cluster - gas_ccgt old 1</t>
+  </si>
+  <si>
+    <t>cluster - gas_ccgt old 2</t>
+  </si>
+  <si>
+    <t>cluster - gas_ccgt present 1</t>
+  </si>
+  <si>
+    <t>cluster - gas_ccgt present 2</t>
+  </si>
+  <si>
+    <t>cluster - gas_ccgt new</t>
+  </si>
+  <si>
+    <t>cluster - gas_ccgt ccs</t>
+  </si>
+  <si>
+    <t>cluster - gas_ocgt old</t>
+  </si>
+  <si>
+    <t>cluster - gas_ocgt new</t>
+  </si>
+  <si>
+    <t>cluster - light oil_light oil</t>
+  </si>
+  <si>
+    <t>cluster - heavy oil_old 1</t>
+  </si>
+  <si>
+    <t>cluster - heavy oil_old 2</t>
+  </si>
+  <si>
+    <t>cluster - oil shale_old</t>
+  </si>
+  <si>
+    <t>cluster - oil shale_new</t>
+  </si>
+  <si>
+    <t>cluster - lignite_bio</t>
+  </si>
+  <si>
+    <t>cluster - hard coal_bio</t>
+  </si>
+  <si>
+    <t>cluster - gas_bio</t>
+  </si>
+  <si>
+    <t>cluster - light oil_bio</t>
+  </si>
+  <si>
+    <t>cluster - heavy oil_bio</t>
+  </si>
+  <si>
+    <t>cluster - oil shale_bio</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>`OV. COST`</t>
+  </si>
+  <si>
+    <t>`OP. COST`</t>
+  </si>
+  <si>
+    <t>`NP COST`</t>
+  </si>
+  <si>
+    <t>`MRG. PRICE`</t>
+  </si>
+  <si>
+    <t>`CO2 EMIS.`</t>
+  </si>
+  <si>
+    <t>`BALANCE`</t>
+  </si>
+  <si>
+    <t>`ROW BAL.`</t>
+  </si>
+  <si>
+    <t>ifelse(`PSP` &gt; 0, `PSP`, 0)</t>
+  </si>
+  <si>
+    <t>ifelse(`PSP` &lt; 0, `PSP`, 0)</t>
+  </si>
+  <si>
+    <t>`MISC. NDG`</t>
+  </si>
+  <si>
+    <t>`LOAD`</t>
+  </si>
+  <si>
+    <t>`H. ROR`</t>
+  </si>
+  <si>
+    <t>`WIND`</t>
+  </si>
+  <si>
+    <t>`SOLAR`</t>
+  </si>
+  <si>
+    <t>`NUCLEAR`</t>
+  </si>
+  <si>
+    <t>`COAL`</t>
+  </si>
+  <si>
+    <t>`LIGNITE`</t>
+  </si>
+  <si>
+    <t>`GAS`</t>
+  </si>
+  <si>
+    <t>`OIL`</t>
+  </si>
+  <si>
+    <t>`MIX. FUEL`</t>
+  </si>
+  <si>
+    <t>`MISC. DTG`</t>
+  </si>
+  <si>
+    <t>`H. STOR`</t>
+  </si>
+  <si>
+    <t>`UNSP. ENRG`</t>
+  </si>
+  <si>
+    <t>`SPIL. ENRG`</t>
+  </si>
+  <si>
+    <t>`LOLD`</t>
+  </si>
+  <si>
+    <t>`LOLP`</t>
+  </si>
+  <si>
+    <t>`AVL DTG`</t>
+  </si>
+  <si>
+    <t>`DTG MRG`</t>
+  </si>
+  <si>
+    <t>`MAX MRG`</t>
+  </si>
+  <si>
+    <t>`NODU`</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -969,6 +945,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -984,7 +973,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1103,49 +1092,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1464,15 +1517,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6269D062-6DED-4CF7-AAB6-D21CF22BAB73}">
   <dimension ref="A1:B119"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
@@ -1480,7 +1533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1488,7 +1541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1496,7 +1549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1504,7 +1557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1512,7 +1565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1520,7 +1573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1528,7 +1581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1536,7 +1589,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1544,7 +1597,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1552,7 +1605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1560,7 +1613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1568,7 +1621,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -1576,7 +1629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1584,7 +1637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -1592,7 +1645,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -1600,7 +1653,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -1608,7 +1661,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -1616,7 +1669,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -1624,7 +1677,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -1632,7 +1685,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -1640,7 +1693,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -1648,7 +1701,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
@@ -1656,7 +1709,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -1664,7 +1717,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -1672,7 +1725,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -1680,7 +1733,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>51</v>
       </c>
@@ -1688,7 +1741,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>53</v>
       </c>
@@ -1696,7 +1749,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>55</v>
       </c>
@@ -1704,7 +1757,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>57</v>
       </c>
@@ -1712,7 +1765,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>59</v>
       </c>
@@ -1720,7 +1773,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>61</v>
       </c>
@@ -1728,7 +1781,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>63</v>
       </c>
@@ -1736,7 +1789,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>65</v>
       </c>
@@ -1744,7 +1797,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>67</v>
       </c>
@@ -1752,7 +1805,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>69</v>
       </c>
@@ -1760,7 +1813,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>71</v>
       </c>
@@ -1768,7 +1821,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>73</v>
       </c>
@@ -1776,7 +1829,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>75</v>
       </c>
@@ -1784,7 +1837,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>77</v>
       </c>
@@ -1792,7 +1845,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>79</v>
       </c>
@@ -1800,7 +1853,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>81</v>
       </c>
@@ -1808,463 +1861,463 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2" t="s">
         <v>159</v>
@@ -2277,940 +2330,887 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA0C1F2-E3A3-48EB-881E-BF01D90AA1B6}">
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
-      <c r="B28" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
-      <c r="B29" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="2"/>
+      <c r="C32" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
-      <c r="B35" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="B36" s="2"/>
+      <c r="C36" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
-      <c r="B37" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="2"/>
+      <c r="C37" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
-      <c r="B38" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="2"/>
+      <c r="C38" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
-      <c r="B39" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="B39" s="2"/>
+      <c r="C39" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="B40" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
-      <c r="B41" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="B41" s="2"/>
+      <c r="C41" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
-      <c r="B42" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="2"/>
+      <c r="C42" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="B43" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="8" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="8" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="8" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="8" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="8" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3223,649 +3223,690 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B57E84-B55D-4563-ABB5-693AD42469D5}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="68.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="68.5546875" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="B42" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="16" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="B43" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="B44" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="B45" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="B46" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="B47" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="B48" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="B49" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="B50" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="B51" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="B52" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="B53" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="B54" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B14" s="10" t="s">
+      <c r="B55" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B15" s="10" t="s">
+      <c r="B56" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B16" s="10" t="s">
+      <c r="B57" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B17" s="10" t="s">
+      <c r="B58" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="B59" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B19" s="10" t="s">
+      <c r="B60" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C36" s="7"/>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C37" s="7"/>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C41" s="7" t="s">
+      <c r="B61" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C61" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="C42" s="7"/>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C43" s="7"/>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="C46" s="7"/>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="C47" s="7"/>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C48" s="7"/>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C49" s="7"/>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C50" s="7"/>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="C51" s="7"/>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C52" s="7"/>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C53" s="7"/>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="C54" s="7"/>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C55" s="7"/>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C56" s="7"/>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="C57" s="7"/>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="C58" s="7"/>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C59" s="7"/>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C60" s="7"/>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="C61" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/inst/application/www/Output_Selection_template.xlsx
+++ b/inst/application/www/Output_Selection_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BenoitThieurmel\Documents\git\antaresVizMedTSO\inst\application\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21F68D5-F414-485D-9D82-20473F47E4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CF43FE-6DAD-4BB2-8B44-FEF801B5BB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D77C83E6-B695-4B37-B3DE-F053925C20A4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D77C83E6-B695-4B37-B3DE-F053925C20A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual_Selection" sheetId="1" r:id="rId1"/>
@@ -827,12 +827,6 @@
     <t>`ROW BAL.`</t>
   </si>
   <si>
-    <t>ifelse(`PSP` &gt; 0, `PSP`, 0)</t>
-  </si>
-  <si>
-    <t>ifelse(`PSP` &lt; 0, `PSP`, 0)</t>
-  </si>
-  <si>
     <t>`MISC. NDG`</t>
   </si>
   <si>
@@ -894,6 +888,12 @@
   </si>
   <si>
     <t>`NODU`</t>
+  </si>
+  <si>
+    <t>ifelse(`PSP` &gt; 0, as.numeric(`PSP`), 0)</t>
+  </si>
+  <si>
+    <t>ifelse(`PSP` &lt; 0, as.numeric(`PSP`), 0)</t>
   </si>
 </sst>
 </file>
@@ -2332,8 +2332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA0C1F2-E3A3-48EB-881E-BF01D90AA1B6}">
   <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3223,8 +3223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B57E84-B55D-4563-ABB5-693AD42469D5}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3657,7 +3657,7 @@
         <v>199</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="C39" s="20" t="s">
         <v>256</v>
@@ -3668,7 +3668,7 @@
         <v>200</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="C40" s="20" t="s">
         <v>256</v>
@@ -3679,7 +3679,7 @@
         <v>201</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>256</v>
@@ -3690,7 +3690,7 @@
         <v>202</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>256</v>
@@ -3701,7 +3701,7 @@
         <v>203</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>256</v>
@@ -3712,7 +3712,7 @@
         <v>204</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>256</v>
@@ -3723,7 +3723,7 @@
         <v>205</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>256</v>
@@ -3734,7 +3734,7 @@
         <v>206</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>256</v>
@@ -3745,7 +3745,7 @@
         <v>207</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>256</v>
@@ -3756,7 +3756,7 @@
         <v>208</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>256</v>
@@ -3767,7 +3767,7 @@
         <v>209</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>256</v>
@@ -3778,7 +3778,7 @@
         <v>210</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>256</v>
@@ -3789,7 +3789,7 @@
         <v>211</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>256</v>
@@ -3800,7 +3800,7 @@
         <v>212</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>256</v>
@@ -3811,7 +3811,7 @@
         <v>213</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>256</v>
@@ -3822,7 +3822,7 @@
         <v>214</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>256</v>
@@ -3833,7 +3833,7 @@
         <v>215</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>256</v>
@@ -3844,7 +3844,7 @@
         <v>216</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>256</v>
@@ -3855,7 +3855,7 @@
         <v>217</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>256</v>
@@ -3866,7 +3866,7 @@
         <v>218</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>256</v>
@@ -3877,7 +3877,7 @@
         <v>219</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>256</v>
@@ -3888,7 +3888,7 @@
         <v>220</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>256</v>
@@ -3899,7 +3899,7 @@
         <v>221</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>256</v>

--- a/inst/application/www/Output_Selection_template.xlsx
+++ b/inst/application/www/Output_Selection_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BenoitThieurmel\Documents\git\antaresVizMedTSO\inst\application\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CF43FE-6DAD-4BB2-8B44-FEF801B5BB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E890ECD-0727-4A05-A9C3-3D1E5ED8B9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D77C83E6-B695-4B37-B3DE-F053925C20A4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D77C83E6-B695-4B37-B3DE-F053925C20A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual_Selection" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="290">
   <si>
     <t>Links</t>
   </si>
@@ -894,6 +894,15 @@
   </si>
   <si>
     <t>ifelse(`PSP` &lt; 0, as.numeric(`PSP`), 0)</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>TURB</t>
+  </si>
+  <si>
+    <t>PUMP</t>
   </si>
 </sst>
 </file>
@@ -2332,7 +2341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA0C1F2-E3A3-48EB-881E-BF01D90AA1B6}">
   <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -3221,10 +3230,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B57E84-B55D-4563-ABB5-693AD42469D5}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3232,9 +3241,10 @@
     <col min="1" max="1" width="26.6640625" style="21" customWidth="1"/>
     <col min="2" max="2" width="37.109375" style="21" customWidth="1"/>
     <col min="3" max="3" width="68.5546875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>222</v>
       </c>
@@ -3244,8 +3254,11 @@
       <c r="C1" s="13" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>162</v>
       </c>
@@ -3255,8 +3268,11 @@
       <c r="C2" s="15" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>163</v>
       </c>
@@ -3266,8 +3282,11 @@
       <c r="C3" s="15" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>164</v>
       </c>
@@ -3277,8 +3296,11 @@
       <c r="C4" s="15" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>165</v>
       </c>
@@ -3288,8 +3310,11 @@
       <c r="C5" s="15" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>166</v>
       </c>
@@ -3299,8 +3324,11 @@
       <c r="C6" s="15" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>167</v>
       </c>
@@ -3310,8 +3338,11 @@
       <c r="C7" s="15" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>168</v>
       </c>
@@ -3321,8 +3352,11 @@
       <c r="C8" s="15" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>169</v>
       </c>
@@ -3332,8 +3366,11 @@
       <c r="C9" s="15" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>170</v>
       </c>
@@ -3343,8 +3380,11 @@
       <c r="C10" s="15" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>171</v>
       </c>
@@ -3354,8 +3394,11 @@
       <c r="C11" s="15" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>172</v>
       </c>
@@ -3365,8 +3408,11 @@
       <c r="C12" s="15" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
         <v>173</v>
       </c>
@@ -3376,8 +3422,11 @@
       <c r="C13" s="15" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>174</v>
       </c>
@@ -3387,8 +3436,11 @@
       <c r="C14" s="15" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>175</v>
       </c>
@@ -3398,8 +3450,11 @@
       <c r="C15" s="15" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
         <v>176</v>
       </c>
@@ -3409,8 +3464,11 @@
       <c r="C16" s="15" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D16" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
         <v>177</v>
       </c>
@@ -3420,8 +3478,11 @@
       <c r="C17" s="15" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
         <v>178</v>
       </c>
@@ -3431,8 +3492,11 @@
       <c r="C18" s="15" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
         <v>179</v>
       </c>
@@ -3442,8 +3506,11 @@
       <c r="C19" s="15" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
         <v>180</v>
       </c>
@@ -3453,8 +3520,11 @@
       <c r="C20" s="15" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
         <v>181</v>
       </c>
@@ -3464,8 +3534,11 @@
       <c r="C21" s="15" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>182</v>
       </c>
@@ -3475,8 +3548,11 @@
       <c r="C22" s="15" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D22" s="18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>183</v>
       </c>
@@ -3486,8 +3562,11 @@
       <c r="C23" s="15" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
         <v>184</v>
       </c>
@@ -3497,8 +3576,11 @@
       <c r="C24" s="15" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D24" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
         <v>185</v>
       </c>
@@ -3508,8 +3590,11 @@
       <c r="C25" s="15" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
         <v>186</v>
       </c>
@@ -3519,8 +3604,11 @@
       <c r="C26" s="19" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D26" s="18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
         <v>187</v>
       </c>
@@ -3530,8 +3618,11 @@
       <c r="C27" s="15" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
         <v>188</v>
       </c>
@@ -3541,8 +3632,11 @@
       <c r="C28" s="15" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D28" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
         <v>189</v>
       </c>
@@ -3552,8 +3646,11 @@
       <c r="C29" s="15" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D29" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>190</v>
       </c>
@@ -3563,8 +3660,11 @@
       <c r="C30" s="15" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D30" s="18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
         <v>191</v>
       </c>
@@ -3574,8 +3674,11 @@
       <c r="C31" s="15" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D31" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="16" t="s">
         <v>192</v>
       </c>
@@ -3585,8 +3688,11 @@
       <c r="C32" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D32" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
         <v>193</v>
       </c>
@@ -3596,8 +3702,11 @@
       <c r="C33" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D33" s="15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
         <v>194</v>
       </c>
@@ -3607,8 +3716,11 @@
       <c r="C34" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D34" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
         <v>195</v>
       </c>
@@ -3618,8 +3730,11 @@
       <c r="C35" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D35" s="15" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="s">
         <v>196</v>
       </c>
@@ -3629,8 +3744,11 @@
       <c r="C36" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D36" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
         <v>197</v>
       </c>
@@ -3640,8 +3758,11 @@
       <c r="C37" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D37" s="15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
         <v>198</v>
       </c>
@@ -3651,8 +3772,11 @@
       <c r="C38" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D38" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="16" t="s">
         <v>199</v>
       </c>
@@ -3662,8 +3786,11 @@
       <c r="C39" s="20" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D39" s="20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
         <v>200</v>
       </c>
@@ -3673,8 +3800,11 @@
       <c r="C40" s="20" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D40" s="20" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
         <v>201</v>
       </c>
@@ -3684,8 +3814,11 @@
       <c r="C41" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D41" s="15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="16" t="s">
         <v>202</v>
       </c>
@@ -3695,8 +3828,11 @@
       <c r="C42" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D42" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="16" t="s">
         <v>203</v>
       </c>
@@ -3706,8 +3842,11 @@
       <c r="C43" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D43" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
         <v>204</v>
       </c>
@@ -3717,8 +3856,11 @@
       <c r="C44" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D44" s="15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="16" t="s">
         <v>205</v>
       </c>
@@ -3728,8 +3870,11 @@
       <c r="C45" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D45" s="15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="16" t="s">
         <v>206</v>
       </c>
@@ -3739,8 +3884,11 @@
       <c r="C46" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D46" s="15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="16" t="s">
         <v>207</v>
       </c>
@@ -3750,8 +3898,11 @@
       <c r="C47" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D47" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
         <v>208</v>
       </c>
@@ -3761,8 +3912,11 @@
       <c r="C48" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D48" s="15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
         <v>209</v>
       </c>
@@ -3772,8 +3926,11 @@
       <c r="C49" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D49" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="16" t="s">
         <v>210</v>
       </c>
@@ -3783,8 +3940,11 @@
       <c r="C50" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D50" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="18" t="s">
         <v>211</v>
       </c>
@@ -3794,8 +3954,11 @@
       <c r="C51" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D51" s="15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
         <v>212</v>
       </c>
@@ -3805,8 +3968,11 @@
       <c r="C52" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D52" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="s">
         <v>213</v>
       </c>
@@ -3816,8 +3982,11 @@
       <c r="C53" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D53" s="15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
         <v>214</v>
       </c>
@@ -3827,8 +3996,11 @@
       <c r="C54" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D54" s="19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="16" t="s">
         <v>215</v>
       </c>
@@ -3838,8 +4010,11 @@
       <c r="C55" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D55" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="16" t="s">
         <v>216</v>
       </c>
@@ -3849,8 +4024,11 @@
       <c r="C56" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D56" s="15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="17" t="s">
         <v>217</v>
       </c>
@@ -3860,8 +4038,11 @@
       <c r="C57" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D57" s="15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
         <v>218</v>
       </c>
@@ -3871,8 +4052,11 @@
       <c r="C58" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D58" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="16" t="s">
         <v>219</v>
       </c>
@@ -3882,8 +4066,11 @@
       <c r="C59" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D59" s="15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="16" t="s">
         <v>220</v>
       </c>
@@ -3893,8 +4080,11 @@
       <c r="C60" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D60" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="15" t="s">
         <v>221</v>
       </c>
@@ -3903,6 +4093,9 @@
       </c>
       <c r="C61" s="15" t="s">
         <v>256</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/inst/application/www/Output_Selection_template.xlsx
+++ b/inst/application/www/Output_Selection_template.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BenoitThieurmel\Documents\git\antaresVizMedTSO\inst\application\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E890ECD-0727-4A05-A9C3-3D1E5ED8B9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8237B4-BEB8-460A-AF04-CE7AAC96C3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D77C83E6-B695-4B37-B3DE-F053925C20A4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{D77C83E6-B695-4B37-B3DE-F053925C20A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual_Selection" sheetId="1" r:id="rId1"/>
     <sheet name="Hourly_Selection" sheetId="2" r:id="rId2"/>
     <sheet name="Hourly_Dico" sheetId="4" r:id="rId3"/>
+    <sheet name="Documentation" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,15 +26,40 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="528">
   <si>
     <t>Links</t>
   </si>
@@ -903,13 +929,1054 @@
   </si>
   <si>
     <t>PUMP</t>
+  </si>
+  <si>
+    <t>Yearly Output Long sheet (annual export) :</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In this sheet, we can compute indicators on area/disctrict OR cluster. So we need first to specify the data source in column </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Type</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 possibilities then understood by the R-code : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>area</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for area/disctrict variable, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cluster</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for cluster variable, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clusterRes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in case of new ENR cluster (Antares &gt;= 8.1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In case of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cluster</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clusterRes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, we have then to specify also the cluster name, with "-" separator. Ex : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cluster - nuclear_nuclear</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">In addition, clusters are aggregated if a second "_" is present in theirs names : </t>
+  </si>
+  <si>
+    <t>lignite_bio_group 1, lignite_bio_group 2, lignite_bio_old 1, lignite_bio_old 2 are merged into lignite_bio</t>
+  </si>
+  <si>
+    <t>gas_ccgt present 1 and gas_ccgt present 2 are treated separately</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Then, we have to specify R code in column </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Formula</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as described below.</t>
+    </r>
+  </si>
+  <si>
+    <t>Yearly Output Short sheet (annual export) :</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use directly R formula in column </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Formula </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>using area/district variables</t>
+    </r>
+  </si>
+  <si>
+    <t>Yearly Welfare sheet (annual export) :</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use directly R formula in column </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Formula </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>using surplus variables</t>
+    </r>
+  </si>
+  <si>
+    <t>Yearly Interconnection sheet (annual export) :</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use directly R formula in line </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Formula </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>using link variables</t>
+    </r>
+  </si>
+  <si>
+    <t>Hourly_Dico sheet (hourly export) :</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This sheet define hourly output available indicators, with some analogies with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yearly Output Long sheet (annual export)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">We are waiting for 4 columns : </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Long name for .xlsx output</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Formula</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : R code in column Formula as described below</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Type </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: same as Type column in Yearly Output Long sheet (annual export). See above.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : ID or short name for .xlsx output </t>
+    </r>
+  </si>
+  <si>
+    <t>R Formulae :</t>
+  </si>
+  <si>
+    <t>You can use all avaible Antares variables. Main are list below. R doesn't like space or special characters in variable names. So you have to use a grave accent around name like `MISC. NDG`</t>
+  </si>
+  <si>
+    <t>If needed, you can used readAntares function from antaresRead R package to retrieve data and names from R.</t>
+  </si>
+  <si>
+    <t>And all default R functions are available. You can also see some documentation / example below.</t>
+  </si>
+  <si>
+    <t>To prevent computational limit with too big number / result, try to reduce unities if possible.</t>
+  </si>
+  <si>
+    <t>For example, prefer use A / 1000 + B /1000 + C /1000 rather than (A + B + C) / 1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List of main variables available : </t>
+  </si>
+  <si>
+    <t>Antares Name</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>areas &amp; districts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OV. COST </t>
+  </si>
+  <si>
+    <t>Overall_cost</t>
+  </si>
+  <si>
+    <t>OP. COST</t>
+  </si>
+  <si>
+    <t>Operating_cost</t>
+  </si>
+  <si>
+    <t>MRG. PRICE</t>
+  </si>
+  <si>
+    <t>Marginal_price</t>
+  </si>
+  <si>
+    <t>CO2 EMIS.</t>
+  </si>
+  <si>
+    <t>CO2_emissions</t>
+  </si>
+  <si>
+    <t>BALANCE</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>ROW BAL.</t>
+  </si>
+  <si>
+    <t>RoW_Balance</t>
+  </si>
+  <si>
+    <t>MISC. NDG</t>
+  </si>
+  <si>
+    <t>Other_renewables</t>
+  </si>
+  <si>
+    <t>LOAD</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>H. ROR</t>
+  </si>
+  <si>
+    <t>Hydro_ROR</t>
+  </si>
+  <si>
+    <t>WIND</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>WIND OFFSHORE</t>
+  </si>
+  <si>
+    <t>Antares V&gt;=8.1 with clusters ENR. Wind_Offshore</t>
+  </si>
+  <si>
+    <t>WIND ONSHORE</t>
+  </si>
+  <si>
+    <t>Antares V&gt;=8.1 with clusters ENR. Wind_Onshore</t>
+  </si>
+  <si>
+    <t>SOLAR</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>SOLAR CONCRT.</t>
+  </si>
+  <si>
+    <t>Antares V&gt;=8.1 with clusters ENR. Solar_Concrt</t>
+  </si>
+  <si>
+    <t>SOLAR PV</t>
+  </si>
+  <si>
+    <t>Antares V&gt;=8.1 with clusters ENR. Solar_PV</t>
+  </si>
+  <si>
+    <t>SOLAR ROOFT</t>
+  </si>
+  <si>
+    <t>Antares V&gt;=8.1 with clusters ENR. Solar_Rooft</t>
+  </si>
+  <si>
+    <t>NUCLEAR</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>LIGNITE</t>
+  </si>
+  <si>
+    <t>Lignite</t>
+  </si>
+  <si>
+    <t>COAL</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>OIL</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>MIX. FUEL</t>
+  </si>
+  <si>
+    <t>Mix_Fuel</t>
+  </si>
+  <si>
+    <t>MISC. DTG</t>
+  </si>
+  <si>
+    <t>Other_Fuel</t>
+  </si>
+  <si>
+    <t>MISC. DTG 2</t>
+  </si>
+  <si>
+    <t>Antares V&gt;=8.1 with clusters ENR. Other_Fuel_2</t>
+  </si>
+  <si>
+    <t>MISC. DTG 3</t>
+  </si>
+  <si>
+    <t>Antares V&gt;=8.1 with clusters ENR. Other_Fuel_3</t>
+  </si>
+  <si>
+    <t>MISC. DTG 4</t>
+  </si>
+  <si>
+    <t>Antares V&gt;=8.1 with clusters ENR. Other_Fuel_4</t>
+  </si>
+  <si>
+    <t>H. STOR</t>
+  </si>
+  <si>
+    <t>Hydro_reservoir</t>
+  </si>
+  <si>
+    <t>UNSP. ENRG</t>
+  </si>
+  <si>
+    <t>Unsupplied_energy</t>
+  </si>
+  <si>
+    <t>SPIL. ENRG</t>
+  </si>
+  <si>
+    <t>Dumped_energy</t>
+  </si>
+  <si>
+    <t>LOLD</t>
+  </si>
+  <si>
+    <t>Loss_of_load_duration</t>
+  </si>
+  <si>
+    <t>LOLP</t>
+  </si>
+  <si>
+    <t>Loss_of_load_prob</t>
+  </si>
+  <si>
+    <t>AVL DTG</t>
+  </si>
+  <si>
+    <t>Available_thermal</t>
+  </si>
+  <si>
+    <t>DTG MRG</t>
+  </si>
+  <si>
+    <t>Thermal_margin</t>
+  </si>
+  <si>
+    <t>MAX MRG</t>
+  </si>
+  <si>
+    <t>Maximum_margin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP COST </t>
+  </si>
+  <si>
+    <t>Starting_cost</t>
+  </si>
+  <si>
+    <t>Nb_unit_commitment</t>
+  </si>
+  <si>
+    <t>RENW. 1</t>
+  </si>
+  <si>
+    <t>Antares V&gt;=8.1 with clusters ENR. RENW. 1</t>
+  </si>
+  <si>
+    <t>RENW. 2</t>
+  </si>
+  <si>
+    <t>Antares V&gt;=8.1 with clusters ENR. RENW. 2</t>
+  </si>
+  <si>
+    <t>RENW. 3</t>
+  </si>
+  <si>
+    <t>Antares V&gt;=8.1 with clusters ENR. RENW. 3</t>
+  </si>
+  <si>
+    <t>RENW. 4</t>
+  </si>
+  <si>
+    <t>Antares V&gt;=8.1 with clusters ENR. RENW. 4</t>
+  </si>
+  <si>
+    <t>PSP</t>
+  </si>
+  <si>
+    <t>Pump Storage - Open Loop (net)</t>
+  </si>
+  <si>
+    <t>PSP_POS</t>
+  </si>
+  <si>
+    <t>Compute only on AVM.  Pump Storage - Open Loop (turbine)</t>
+  </si>
+  <si>
+    <t>PSP_NEG</t>
+  </si>
+  <si>
+    <t>Compute only on AVM. Pump Storage - Open Loop (pump)</t>
+  </si>
+  <si>
+    <t>PSP_closed</t>
+  </si>
+  <si>
+    <t>Compute only on AVM. Pump Storage - Closed Loop (net)</t>
+  </si>
+  <si>
+    <t>PSP_closed_POS</t>
+  </si>
+  <si>
+    <t>Compute only on AVM. Pump Storage - Closed Loop (turbine)</t>
+  </si>
+  <si>
+    <t>PSP_closed_NEG</t>
+  </si>
+  <si>
+    <t>Compute only on AVM. Pump Storage - Closed Loop (pump)</t>
+  </si>
+  <si>
+    <t>BATT</t>
+  </si>
+  <si>
+    <t>Compute only on AVM. Battery Storage (net)</t>
+  </si>
+  <si>
+    <t>BATT_POS</t>
+  </si>
+  <si>
+    <t>Compute only on AVM. Battery Storage discharge</t>
+  </si>
+  <si>
+    <t>BATT_NEG</t>
+  </si>
+  <si>
+    <t>Compute only on AVM. Battery Storage charge</t>
+  </si>
+  <si>
+    <t>DSR</t>
+  </si>
+  <si>
+    <t>Compute only on AVM. Demand Side Response (net)</t>
+  </si>
+  <si>
+    <t>DSR_POS</t>
+  </si>
+  <si>
+    <t>Compute only on AVM. DSR_POS</t>
+  </si>
+  <si>
+    <t>DSR_NEG</t>
+  </si>
+  <si>
+    <t>Compute only on AVM. DSR_NEG</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>Compute only on AVM. Electric Vehicle (net)</t>
+  </si>
+  <si>
+    <t>EV_POS</t>
+  </si>
+  <si>
+    <t>Compute only on AVM. Electric Vehicle (V2G)</t>
+  </si>
+  <si>
+    <t>EV_NEG</t>
+  </si>
+  <si>
+    <t>Compute only on AVM. Electric Vehicle (G2V)</t>
+  </si>
+  <si>
+    <t>P2G</t>
+  </si>
+  <si>
+    <t>Compute only on AVM. Power to Gas</t>
+  </si>
+  <si>
+    <t>P2G_POS</t>
+  </si>
+  <si>
+    <t>Compute only on AVM. Power to Gas (generation)</t>
+  </si>
+  <si>
+    <t>P2G_NEG</t>
+  </si>
+  <si>
+    <t>Compute only on AVM. Power to Gas (load)</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>Compute only on AVM. Power to Hydrogen</t>
+  </si>
+  <si>
+    <t>H2_POS</t>
+  </si>
+  <si>
+    <t>Compute only on AVM. Fuel Cell Hydrogen</t>
+  </si>
+  <si>
+    <t>H2_NEG</t>
+  </si>
+  <si>
+    <t>Compute only on AVM. Power to Hydrogen (Electrolizer load)</t>
+  </si>
+  <si>
+    <t>links</t>
+  </si>
+  <si>
+    <t>FLOW LIN.</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>FLOW_NEG</t>
+  </si>
+  <si>
+    <t>Compute only on AVM. Flow_(neg)</t>
+  </si>
+  <si>
+    <t>FLOW_POS</t>
+  </si>
+  <si>
+    <t>Compute only on AVM. Flow_(pos)</t>
+  </si>
+  <si>
+    <t>UCAP LIN.</t>
+  </si>
+  <si>
+    <t>Flow_(abs)</t>
+  </si>
+  <si>
+    <t>FLOW QUAD.</t>
+  </si>
+  <si>
+    <t>Flow_(quad)</t>
+  </si>
+  <si>
+    <t>CONG. FEE (ALG.)</t>
+  </si>
+  <si>
+    <t>Congestion_fee</t>
+  </si>
+  <si>
+    <t>CONG. FEE (ABS.)</t>
+  </si>
+  <si>
+    <t>Congestion_fee_(Abs)</t>
+  </si>
+  <si>
+    <t>MARG. COST</t>
+  </si>
+  <si>
+    <t>Marginal_cost_diff</t>
+  </si>
+  <si>
+    <t>CONG. PROB +</t>
+  </si>
+  <si>
+    <t>Congestion_prob+</t>
+  </si>
+  <si>
+    <t>CONG. PROB -</t>
+  </si>
+  <si>
+    <t>Congestion_prob-</t>
+  </si>
+  <si>
+    <t>HURDLE COST</t>
+  </si>
+  <si>
+    <t>Hurdle_cost</t>
+  </si>
+  <si>
+    <t>clusters</t>
+  </si>
+  <si>
+    <t>unitcount</t>
+  </si>
+  <si>
+    <t>Number of unit</t>
+  </si>
+  <si>
+    <t>nominalcapacity</t>
+  </si>
+  <si>
+    <t>Nominal capacity of each unit</t>
+  </si>
+  <si>
+    <t>installed.capacity</t>
+  </si>
+  <si>
+    <t>Compute only on AVM. Unicount * nominalcapacity</t>
+  </si>
+  <si>
+    <t>clustersRes</t>
+  </si>
+  <si>
+    <t>Antares V&gt;=8.1 with clusters ENR.</t>
+  </si>
+  <si>
+    <t>Antares V&gt;=8.1 with clusters ENR. Number of unit</t>
+  </si>
+  <si>
+    <t>Antares V&gt;=8.1 with clusters ENR. Nominal capacity of each unit</t>
+  </si>
+  <si>
+    <t>Antares V&gt;=8.1 with clusters ENR. Compute only on AVM. Unicount * nominalcapacity</t>
+  </si>
+  <si>
+    <t>surplus</t>
+  </si>
+  <si>
+    <t>consumerSurplus</t>
+  </si>
+  <si>
+    <t>The surplus of the consumers of some area.
+formula = (unsuppliedCost[area] - 'MRG. PRICE') * LOAD</t>
+  </si>
+  <si>
+    <t>producerSurplus</t>
+  </si>
+  <si>
+    <t>The surplus of the producers of some area.
+formula = 'MRG. PRICE' * production - 'OP. COST'
+Production includes "NUCLEAR", "LIGNITE", "COAL", "GAS", "OIL", "MIX. FUEL", "MISC. DTG", "H. STOR", "H. ROR", "WIND", "SOLAR" and "MISC. NDG"</t>
+  </si>
+  <si>
+    <t>rowBalanceSurplus</t>
+  </si>
+  <si>
+    <t>Surplus of the ROW balance.
+Formula: 'MRG. PRICE' * 'ROW BAL.'</t>
+  </si>
+  <si>
+    <t>storageSurplus</t>
+  </si>
+  <si>
+    <t>Surplus created by storage/flexibility areas.
+formula = storage * x$areas$'MRG. PRICE'</t>
+  </si>
+  <si>
+    <t>congestionFees</t>
+  </si>
+  <si>
+    <t>The congestion fees of a given area. It equals to half the congestion fees of the links connected to that area.
+formula = (congestionFees-hurdleCost) / 2</t>
+  </si>
+  <si>
+    <t>globalSurplus</t>
+  </si>
+  <si>
+    <t>Sum of the consumer surplus, the producer surplus and the congestion fees.
+formula = consumerSurplus + producerSurplus + storageSurplus + congestionFees + rowBalanceSurplus</t>
+  </si>
+  <si>
+    <t>Some usefull R functions :</t>
+  </si>
+  <si>
+    <t>Exemple</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Sum of two variables</t>
+  </si>
+  <si>
+    <t>`WIND OFFSHORE` + `WIND ONSHORE`</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Subraction</t>
+  </si>
+  <si>
+    <t>`WIND OFFSHORE` - `WIND ONSHORE`</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>production / 1000</t>
+  </si>
+  <si>
+    <t>sum()</t>
+  </si>
+  <si>
+    <t>Sum over one variable</t>
+  </si>
+  <si>
+    <t>sum(`WIND`)</t>
+  </si>
+  <si>
+    <t>abs()</t>
+  </si>
+  <si>
+    <t>Absolute value</t>
+  </si>
+  <si>
+    <t>abs(`PSP_NEG` / 1000)</t>
+  </si>
+  <si>
+    <t>ifelse(condition, true, false)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition. See example for PSP_POS : </t>
+  </si>
+  <si>
+    <t>ifelse(PSP &gt; 0, PSP, 0)</t>
+  </si>
+  <si>
+    <t>max()</t>
+  </si>
+  <si>
+    <t>Maximum over one variable</t>
+  </si>
+  <si>
+    <t>max(transCapacityDirect)</t>
+  </si>
+  <si>
+    <t>min()</t>
+  </si>
+  <si>
+    <t>Minimum over one variable</t>
+  </si>
+  <si>
+    <t>min(transCapacityDirect)</t>
+  </si>
+  <si>
+    <t>pmax()</t>
+  </si>
+  <si>
+    <t>Maximum between two elements / variables</t>
+  </si>
+  <si>
+    <t>pmax(EV, 1000) (same as  ifelse(EV &gt; 1000, 1000, EV))</t>
+  </si>
+  <si>
+    <t>pmin()</t>
+  </si>
+  <si>
+    <t>Minimum between two elements / variables</t>
+  </si>
+  <si>
+    <t>pmin(PSP, 0) (same as  ifelse(PSP &lt; 0, PSP, 0))</t>
+  </si>
+  <si>
+    <t>&gt; ; &lt; ; &gt;=; &lt;= ; == : !=</t>
+  </si>
+  <si>
+    <t>Inequality / equality (==) / different (!=). Return logical.</t>
+  </si>
+  <si>
+    <t>sum(`CONG. PROB +` == 100)</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Selection in a variable</t>
+  </si>
+  <si>
+    <t>abs(sum(`FLOW LIN.`[`FLOW LIN.` &lt; 0])) / 1000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -967,8 +2034,86 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -978,6 +2123,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,7 +2334,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1208,6 +2389,51 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3232,8 +4458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33B57E84-B55D-4563-ABB5-693AD42469D5}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4102,4 +5328,6952 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB13B925-451C-45FB-9F07-41556F0CA947}">
+  <dimension ref="A1:BB967"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" customWidth="1"/>
+    <col min="3" max="3" width="72.109375" customWidth="1"/>
+    <col min="4" max="4" width="31.77734375" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="54" width="11.5546875" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:54" s="22" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="22" cm="1">
+        <f t="array" aca="1" ref="D1" ca="1">D1:G43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+    </row>
+    <row r="3" spans="1:54" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="26"/>
+      <c r="AS3" s="26"/>
+      <c r="AT3" s="26"/>
+      <c r="AU3" s="26"/>
+      <c r="AV3" s="26"/>
+      <c r="AW3" s="26"/>
+      <c r="AX3" s="26"/>
+      <c r="AY3" s="26"/>
+      <c r="AZ3" s="26"/>
+      <c r="BA3" s="26"/>
+      <c r="BB3" s="26"/>
+    </row>
+    <row r="4" spans="1:54" s="28" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="26"/>
+      <c r="AO4" s="26"/>
+      <c r="AP4" s="26"/>
+      <c r="AQ4" s="26"/>
+      <c r="AR4" s="26"/>
+      <c r="AS4" s="26"/>
+      <c r="AT4" s="26"/>
+      <c r="AU4" s="26"/>
+      <c r="AV4" s="26"/>
+      <c r="AW4" s="26"/>
+      <c r="AX4" s="26"/>
+      <c r="AY4" s="26"/>
+      <c r="AZ4" s="26"/>
+      <c r="BA4" s="26"/>
+      <c r="BB4" s="26"/>
+    </row>
+    <row r="5" spans="1:54" s="28" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="26"/>
+      <c r="AJ5" s="26"/>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="26"/>
+      <c r="AM5" s="26"/>
+      <c r="AN5" s="26"/>
+      <c r="AO5" s="26"/>
+      <c r="AP5" s="26"/>
+      <c r="AQ5" s="26"/>
+      <c r="AR5" s="26"/>
+      <c r="AS5" s="26"/>
+      <c r="AT5" s="26"/>
+      <c r="AU5" s="26"/>
+      <c r="AV5" s="26"/>
+      <c r="AW5" s="26"/>
+      <c r="AX5" s="26"/>
+      <c r="AY5" s="26"/>
+      <c r="AZ5" s="26"/>
+      <c r="BA5" s="26"/>
+      <c r="BB5" s="26"/>
+    </row>
+    <row r="6" spans="1:54" s="28" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="26"/>
+      <c r="AJ6" s="26"/>
+      <c r="AK6" s="26"/>
+      <c r="AL6" s="26"/>
+      <c r="AM6" s="26"/>
+      <c r="AN6" s="26"/>
+      <c r="AO6" s="26"/>
+      <c r="AP6" s="26"/>
+      <c r="AQ6" s="26"/>
+      <c r="AR6" s="26"/>
+      <c r="AS6" s="26"/>
+      <c r="AT6" s="26"/>
+      <c r="AU6" s="26"/>
+      <c r="AV6" s="26"/>
+      <c r="AW6" s="26"/>
+      <c r="AX6" s="26"/>
+      <c r="AY6" s="26"/>
+      <c r="AZ6" s="26"/>
+      <c r="BA6" s="26"/>
+      <c r="BB6" s="26"/>
+    </row>
+    <row r="7" spans="1:54" s="28" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="26"/>
+      <c r="AI7" s="26"/>
+      <c r="AJ7" s="26"/>
+      <c r="AK7" s="26"/>
+      <c r="AL7" s="26"/>
+      <c r="AM7" s="26"/>
+      <c r="AN7" s="26"/>
+      <c r="AO7" s="26"/>
+      <c r="AP7" s="26"/>
+      <c r="AQ7" s="26"/>
+      <c r="AR7" s="26"/>
+      <c r="AS7" s="26"/>
+      <c r="AT7" s="26"/>
+      <c r="AU7" s="26"/>
+      <c r="AV7" s="26"/>
+      <c r="AW7" s="26"/>
+      <c r="AX7" s="26"/>
+      <c r="AY7" s="26"/>
+      <c r="AZ7" s="26"/>
+      <c r="BA7" s="26"/>
+      <c r="BB7" s="26"/>
+    </row>
+    <row r="8" spans="1:54" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="26"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="26"/>
+      <c r="AL8" s="26"/>
+      <c r="AM8" s="26"/>
+      <c r="AN8" s="26"/>
+      <c r="AO8" s="26"/>
+      <c r="AP8" s="26"/>
+      <c r="AQ8" s="26"/>
+      <c r="AR8" s="26"/>
+      <c r="AS8" s="26"/>
+      <c r="AT8" s="26"/>
+      <c r="AU8" s="26"/>
+      <c r="AV8" s="26"/>
+      <c r="AW8" s="26"/>
+      <c r="AX8" s="26"/>
+      <c r="AY8" s="26"/>
+      <c r="AZ8" s="26"/>
+      <c r="BA8" s="26"/>
+      <c r="BB8" s="26"/>
+    </row>
+    <row r="9" spans="1:54" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="26"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="26"/>
+      <c r="AM9" s="26"/>
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="26"/>
+      <c r="AP9" s="26"/>
+      <c r="AQ9" s="26"/>
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="26"/>
+      <c r="AT9" s="26"/>
+      <c r="AU9" s="26"/>
+      <c r="AV9" s="26"/>
+      <c r="AW9" s="26"/>
+      <c r="AX9" s="26"/>
+      <c r="AY9" s="26"/>
+      <c r="AZ9" s="26"/>
+      <c r="BA9" s="26"/>
+      <c r="BB9" s="26"/>
+    </row>
+    <row r="10" spans="1:54" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="26"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="26"/>
+      <c r="AM10" s="26"/>
+      <c r="AN10" s="26"/>
+      <c r="AO10" s="26"/>
+      <c r="AP10" s="26"/>
+      <c r="AQ10" s="26"/>
+      <c r="AR10" s="26"/>
+      <c r="AS10" s="26"/>
+      <c r="AT10" s="26"/>
+      <c r="AU10" s="26"/>
+      <c r="AV10" s="26"/>
+      <c r="AW10" s="26"/>
+      <c r="AX10" s="26"/>
+      <c r="AY10" s="26"/>
+      <c r="AZ10" s="26"/>
+      <c r="BA10" s="26"/>
+      <c r="BB10" s="26"/>
+    </row>
+    <row r="11" spans="1:54" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+      <c r="AE11" s="26"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="26"/>
+      <c r="AJ11" s="26"/>
+      <c r="AK11" s="26"/>
+      <c r="AL11" s="26"/>
+      <c r="AM11" s="26"/>
+      <c r="AN11" s="26"/>
+      <c r="AO11" s="26"/>
+      <c r="AP11" s="26"/>
+      <c r="AQ11" s="26"/>
+      <c r="AR11" s="26"/>
+      <c r="AS11" s="26"/>
+      <c r="AT11" s="26"/>
+      <c r="AU11" s="26"/>
+      <c r="AV11" s="26"/>
+      <c r="AW11" s="26"/>
+      <c r="AX11" s="26"/>
+      <c r="AY11" s="26"/>
+      <c r="AZ11" s="26"/>
+      <c r="BA11" s="26"/>
+      <c r="BB11" s="26"/>
+    </row>
+    <row r="12" spans="1:54" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="26"/>
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="26"/>
+      <c r="AM12" s="26"/>
+      <c r="AN12" s="26"/>
+      <c r="AO12" s="26"/>
+      <c r="AP12" s="26"/>
+      <c r="AQ12" s="26"/>
+      <c r="AR12" s="26"/>
+      <c r="AS12" s="26"/>
+      <c r="AT12" s="26"/>
+      <c r="AU12" s="26"/>
+      <c r="AV12" s="26"/>
+      <c r="AW12" s="26"/>
+      <c r="AX12" s="26"/>
+      <c r="AY12" s="26"/>
+      <c r="AZ12" s="26"/>
+      <c r="BA12" s="26"/>
+      <c r="BB12" s="26"/>
+    </row>
+    <row r="13" spans="1:54" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A13" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="26"/>
+      <c r="AL13" s="26"/>
+      <c r="AM13" s="26"/>
+      <c r="AN13" s="26"/>
+      <c r="AO13" s="26"/>
+      <c r="AP13" s="26"/>
+      <c r="AQ13" s="26"/>
+      <c r="AR13" s="26"/>
+      <c r="AS13" s="26"/>
+      <c r="AT13" s="26"/>
+      <c r="AU13" s="26"/>
+      <c r="AV13" s="26"/>
+      <c r="AW13" s="26"/>
+      <c r="AX13" s="26"/>
+      <c r="AY13" s="26"/>
+      <c r="AZ13" s="26"/>
+      <c r="BA13" s="26"/>
+      <c r="BB13" s="26"/>
+    </row>
+    <row r="14" spans="1:54" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="26"/>
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="26"/>
+      <c r="AL14" s="26"/>
+      <c r="AM14" s="26"/>
+      <c r="AN14" s="26"/>
+      <c r="AO14" s="26"/>
+      <c r="AP14" s="26"/>
+      <c r="AQ14" s="26"/>
+      <c r="AR14" s="26"/>
+      <c r="AS14" s="26"/>
+      <c r="AT14" s="26"/>
+      <c r="AU14" s="26"/>
+      <c r="AV14" s="26"/>
+      <c r="AW14" s="26"/>
+      <c r="AX14" s="26"/>
+      <c r="AY14" s="26"/>
+      <c r="AZ14" s="26"/>
+      <c r="BA14" s="26"/>
+      <c r="BB14" s="26"/>
+    </row>
+    <row r="15" spans="1:54" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="30"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="26"/>
+      <c r="AJ15" s="26"/>
+      <c r="AK15" s="26"/>
+      <c r="AL15" s="26"/>
+      <c r="AM15" s="26"/>
+      <c r="AN15" s="26"/>
+      <c r="AO15" s="26"/>
+      <c r="AP15" s="26"/>
+      <c r="AQ15" s="26"/>
+      <c r="AR15" s="26"/>
+      <c r="AS15" s="26"/>
+      <c r="AT15" s="26"/>
+      <c r="AU15" s="26"/>
+      <c r="AV15" s="26"/>
+      <c r="AW15" s="26"/>
+      <c r="AX15" s="26"/>
+      <c r="AY15" s="26"/>
+      <c r="AZ15" s="26"/>
+      <c r="BA15" s="26"/>
+      <c r="BB15" s="26"/>
+    </row>
+    <row r="16" spans="1:54" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A16" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="26"/>
+      <c r="AJ16" s="26"/>
+      <c r="AK16" s="26"/>
+      <c r="AL16" s="26"/>
+      <c r="AM16" s="26"/>
+      <c r="AN16" s="26"/>
+      <c r="AO16" s="26"/>
+      <c r="AP16" s="26"/>
+      <c r="AQ16" s="26"/>
+      <c r="AR16" s="26"/>
+      <c r="AS16" s="26"/>
+      <c r="AT16" s="26"/>
+      <c r="AU16" s="26"/>
+      <c r="AV16" s="26"/>
+      <c r="AW16" s="26"/>
+      <c r="AX16" s="26"/>
+      <c r="AY16" s="26"/>
+      <c r="AZ16" s="26"/>
+      <c r="BA16" s="26"/>
+      <c r="BB16" s="26"/>
+    </row>
+    <row r="17" spans="1:54" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="26"/>
+      <c r="AL17" s="26"/>
+      <c r="AM17" s="26"/>
+      <c r="AN17" s="26"/>
+      <c r="AO17" s="26"/>
+      <c r="AP17" s="26"/>
+      <c r="AQ17" s="26"/>
+      <c r="AR17" s="26"/>
+      <c r="AS17" s="26"/>
+      <c r="AT17" s="26"/>
+      <c r="AU17" s="26"/>
+      <c r="AV17" s="26"/>
+      <c r="AW17" s="26"/>
+      <c r="AX17" s="26"/>
+      <c r="AY17" s="26"/>
+      <c r="AZ17" s="26"/>
+      <c r="BA17" s="26"/>
+      <c r="BB17" s="26"/>
+    </row>
+    <row r="18" spans="1:54" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="30"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="26"/>
+      <c r="AJ18" s="26"/>
+      <c r="AK18" s="26"/>
+      <c r="AL18" s="26"/>
+      <c r="AM18" s="26"/>
+      <c r="AN18" s="26"/>
+      <c r="AO18" s="26"/>
+      <c r="AP18" s="26"/>
+      <c r="AQ18" s="26"/>
+      <c r="AR18" s="26"/>
+      <c r="AS18" s="26"/>
+      <c r="AT18" s="26"/>
+      <c r="AU18" s="26"/>
+      <c r="AV18" s="26"/>
+      <c r="AW18" s="26"/>
+      <c r="AX18" s="26"/>
+      <c r="AY18" s="26"/>
+      <c r="AZ18" s="26"/>
+      <c r="BA18" s="26"/>
+      <c r="BB18" s="26"/>
+    </row>
+    <row r="19" spans="1:54" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A19" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="26"/>
+      <c r="AJ19" s="26"/>
+      <c r="AK19" s="26"/>
+      <c r="AL19" s="26"/>
+      <c r="AM19" s="26"/>
+      <c r="AN19" s="26"/>
+      <c r="AO19" s="26"/>
+      <c r="AP19" s="26"/>
+      <c r="AQ19" s="26"/>
+      <c r="AR19" s="26"/>
+      <c r="AS19" s="26"/>
+      <c r="AT19" s="26"/>
+      <c r="AU19" s="26"/>
+      <c r="AV19" s="26"/>
+      <c r="AW19" s="26"/>
+      <c r="AX19" s="26"/>
+      <c r="AY19" s="26"/>
+      <c r="AZ19" s="26"/>
+      <c r="BA19" s="26"/>
+      <c r="BB19" s="26"/>
+    </row>
+    <row r="20" spans="1:54" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="26"/>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="26"/>
+      <c r="AI20" s="26"/>
+      <c r="AJ20" s="26"/>
+      <c r="AK20" s="26"/>
+      <c r="AL20" s="26"/>
+      <c r="AM20" s="26"/>
+      <c r="AN20" s="26"/>
+      <c r="AO20" s="26"/>
+      <c r="AP20" s="26"/>
+      <c r="AQ20" s="26"/>
+      <c r="AR20" s="26"/>
+      <c r="AS20" s="26"/>
+      <c r="AT20" s="26"/>
+      <c r="AU20" s="26"/>
+      <c r="AV20" s="26"/>
+      <c r="AW20" s="26"/>
+      <c r="AX20" s="26"/>
+      <c r="AY20" s="26"/>
+      <c r="AZ20" s="26"/>
+      <c r="BA20" s="26"/>
+      <c r="BB20" s="26"/>
+    </row>
+    <row r="21" spans="1:54" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="30"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="26"/>
+      <c r="AD21" s="26"/>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="26"/>
+      <c r="AG21" s="26"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="26"/>
+      <c r="AJ21" s="26"/>
+      <c r="AK21" s="26"/>
+      <c r="AL21" s="26"/>
+      <c r="AM21" s="26"/>
+      <c r="AN21" s="26"/>
+      <c r="AO21" s="26"/>
+      <c r="AP21" s="26"/>
+      <c r="AQ21" s="26"/>
+      <c r="AR21" s="26"/>
+      <c r="AS21" s="26"/>
+      <c r="AT21" s="26"/>
+      <c r="AU21" s="26"/>
+      <c r="AV21" s="26"/>
+      <c r="AW21" s="26"/>
+      <c r="AX21" s="26"/>
+      <c r="AY21" s="26"/>
+      <c r="AZ21" s="26"/>
+      <c r="BA21" s="26"/>
+      <c r="BB21" s="26"/>
+    </row>
+    <row r="22" spans="1:54" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A22" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="26"/>
+      <c r="AN22" s="26"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="26"/>
+      <c r="AQ22" s="26"/>
+      <c r="AR22" s="26"/>
+      <c r="AS22" s="26"/>
+      <c r="AT22" s="26"/>
+      <c r="AU22" s="26"/>
+      <c r="AV22" s="26"/>
+      <c r="AW22" s="26"/>
+      <c r="AX22" s="26"/>
+      <c r="AY22" s="26"/>
+      <c r="AZ22" s="26"/>
+      <c r="BA22" s="26"/>
+      <c r="BB22" s="26"/>
+    </row>
+    <row r="23" spans="1:54" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="26"/>
+      <c r="AJ23" s="26"/>
+      <c r="AK23" s="26"/>
+      <c r="AL23" s="26"/>
+      <c r="AM23" s="26"/>
+      <c r="AN23" s="26"/>
+      <c r="AO23" s="26"/>
+      <c r="AP23" s="26"/>
+      <c r="AQ23" s="26"/>
+      <c r="AR23" s="26"/>
+      <c r="AS23" s="26"/>
+      <c r="AT23" s="26"/>
+      <c r="AU23" s="26"/>
+      <c r="AV23" s="26"/>
+      <c r="AW23" s="26"/>
+      <c r="AX23" s="26"/>
+      <c r="AY23" s="26"/>
+      <c r="AZ23" s="26"/>
+      <c r="BA23" s="26"/>
+      <c r="BB23" s="26"/>
+    </row>
+    <row r="24" spans="1:54" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="26"/>
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="26"/>
+      <c r="AM24" s="26"/>
+      <c r="AN24" s="26"/>
+      <c r="AO24" s="26"/>
+      <c r="AP24" s="26"/>
+      <c r="AQ24" s="26"/>
+      <c r="AR24" s="26"/>
+      <c r="AS24" s="26"/>
+      <c r="AT24" s="26"/>
+      <c r="AU24" s="26"/>
+      <c r="AV24" s="26"/>
+      <c r="AW24" s="26"/>
+      <c r="AX24" s="26"/>
+      <c r="AY24" s="26"/>
+      <c r="AZ24" s="26"/>
+      <c r="BA24" s="26"/>
+      <c r="BB24" s="26"/>
+    </row>
+    <row r="25" spans="1:54" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="26"/>
+      <c r="AJ25" s="26"/>
+      <c r="AK25" s="26"/>
+      <c r="AL25" s="26"/>
+      <c r="AM25" s="26"/>
+      <c r="AN25" s="26"/>
+      <c r="AO25" s="26"/>
+      <c r="AP25" s="26"/>
+      <c r="AQ25" s="26"/>
+      <c r="AR25" s="26"/>
+      <c r="AS25" s="26"/>
+      <c r="AT25" s="26"/>
+      <c r="AU25" s="26"/>
+      <c r="AV25" s="26"/>
+      <c r="AW25" s="26"/>
+      <c r="AX25" s="26"/>
+      <c r="AY25" s="26"/>
+      <c r="AZ25" s="26"/>
+      <c r="BA25" s="26"/>
+      <c r="BB25" s="26"/>
+    </row>
+    <row r="26" spans="1:54" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="26"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="26"/>
+      <c r="AL26" s="26"/>
+      <c r="AM26" s="26"/>
+      <c r="AN26" s="26"/>
+      <c r="AO26" s="26"/>
+      <c r="AP26" s="26"/>
+      <c r="AQ26" s="26"/>
+      <c r="AR26" s="26"/>
+      <c r="AS26" s="26"/>
+      <c r="AT26" s="26"/>
+      <c r="AU26" s="26"/>
+      <c r="AV26" s="26"/>
+      <c r="AW26" s="26"/>
+      <c r="AX26" s="26"/>
+      <c r="AY26" s="26"/>
+      <c r="AZ26" s="26"/>
+      <c r="BA26" s="26"/>
+      <c r="BB26" s="26"/>
+    </row>
+    <row r="27" spans="1:54" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="26"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="26"/>
+      <c r="AI27" s="26"/>
+      <c r="AJ27" s="26"/>
+      <c r="AK27" s="26"/>
+      <c r="AL27" s="26"/>
+      <c r="AM27" s="26"/>
+      <c r="AN27" s="26"/>
+      <c r="AO27" s="26"/>
+      <c r="AP27" s="26"/>
+      <c r="AQ27" s="26"/>
+      <c r="AR27" s="26"/>
+      <c r="AS27" s="26"/>
+      <c r="AT27" s="26"/>
+      <c r="AU27" s="26"/>
+      <c r="AV27" s="26"/>
+      <c r="AW27" s="26"/>
+      <c r="AX27" s="26"/>
+      <c r="AY27" s="26"/>
+      <c r="AZ27" s="26"/>
+      <c r="BA27" s="26"/>
+      <c r="BB27" s="26"/>
+    </row>
+    <row r="28" spans="1:54" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="26"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="26"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="26"/>
+      <c r="AI28" s="26"/>
+      <c r="AJ28" s="26"/>
+      <c r="AK28" s="26"/>
+      <c r="AL28" s="26"/>
+      <c r="AM28" s="26"/>
+      <c r="AN28" s="26"/>
+      <c r="AO28" s="26"/>
+      <c r="AP28" s="26"/>
+      <c r="AQ28" s="26"/>
+      <c r="AR28" s="26"/>
+      <c r="AS28" s="26"/>
+      <c r="AT28" s="26"/>
+      <c r="AU28" s="26"/>
+      <c r="AV28" s="26"/>
+      <c r="AW28" s="26"/>
+      <c r="AX28" s="26"/>
+      <c r="AY28" s="26"/>
+      <c r="AZ28" s="26"/>
+      <c r="BA28" s="26"/>
+      <c r="BB28" s="26"/>
+    </row>
+    <row r="29" spans="1:54" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="26"/>
+      <c r="AE29" s="26"/>
+      <c r="AF29" s="26"/>
+      <c r="AG29" s="26"/>
+      <c r="AH29" s="26"/>
+      <c r="AI29" s="26"/>
+      <c r="AJ29" s="26"/>
+      <c r="AK29" s="26"/>
+      <c r="AL29" s="26"/>
+      <c r="AM29" s="26"/>
+      <c r="AN29" s="26"/>
+      <c r="AO29" s="26"/>
+      <c r="AP29" s="26"/>
+      <c r="AQ29" s="26"/>
+      <c r="AR29" s="26"/>
+      <c r="AS29" s="26"/>
+      <c r="AT29" s="26"/>
+      <c r="AU29" s="26"/>
+      <c r="AV29" s="26"/>
+      <c r="AW29" s="26"/>
+      <c r="AX29" s="26"/>
+      <c r="AY29" s="26"/>
+      <c r="AZ29" s="26"/>
+      <c r="BA29" s="26"/>
+      <c r="BB29" s="26"/>
+    </row>
+    <row r="30" spans="1:54" ht="21" x14ac:dyDescent="0.4">
+      <c r="A30" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+    </row>
+    <row r="31" spans="1:54" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+    </row>
+    <row r="32" spans="1:54" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+    </row>
+    <row r="33" spans="1:54" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+    </row>
+    <row r="34" spans="1:54" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="26"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+    </row>
+    <row r="35" spans="1:54" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+    </row>
+    <row r="36" spans="1:54" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="26"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="26"/>
+      <c r="AE36" s="26"/>
+      <c r="AF36" s="26"/>
+      <c r="AG36" s="26"/>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="26"/>
+      <c r="AJ36" s="26"/>
+      <c r="AK36" s="26"/>
+      <c r="AL36" s="26"/>
+      <c r="AM36" s="26"/>
+      <c r="AN36" s="26"/>
+      <c r="AO36" s="26"/>
+      <c r="AP36" s="26"/>
+      <c r="AQ36" s="26"/>
+      <c r="AR36" s="26"/>
+      <c r="AS36" s="26"/>
+      <c r="AT36" s="26"/>
+      <c r="AU36" s="26"/>
+      <c r="AV36" s="26"/>
+      <c r="AW36" s="26"/>
+      <c r="AX36" s="26"/>
+      <c r="AY36" s="26"/>
+      <c r="AZ36" s="26"/>
+      <c r="BA36" s="26"/>
+      <c r="BB36" s="26"/>
+    </row>
+    <row r="37" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A37" s="25"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+    </row>
+    <row r="38" spans="1:54" ht="21" x14ac:dyDescent="0.4">
+      <c r="A38" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+    </row>
+    <row r="39" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+    </row>
+    <row r="40" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A40" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="41" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A41" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A42" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="43" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A43" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A44" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="45" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A45" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="46" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A46" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A47" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="48" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A48" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B66" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B68" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="C68" s="34" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B69" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B70" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B71" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B72" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="C72" s="34" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B73" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="C73" s="34" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B74" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="C74" s="34" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B75" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B76" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="C76" s="34" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B77" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="C77" s="34" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B78" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="C78" s="34" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B79" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="C79" s="34" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B80" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="C80" s="34" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B81" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="C81" s="34" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B82" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="C82" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B83" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="C83" s="34" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B84" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="C84" s="34" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B85" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="C85" s="34" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B86" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="C86" s="34" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B87" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="C87" s="34" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B88" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="C88" s="34" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B89" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="C89" s="34" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B90" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="C90" s="34" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B91" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="C91" s="34" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B92" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="C92" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B93" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="C93" s="34" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B94" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="C94" s="34" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B95" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="C95" s="34" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B96" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="C96" s="34" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="C97" s="34" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B98" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="C98" s="34" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B99" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="C99" s="34" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B100" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="C100" s="34" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B101" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="C101" s="34" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="B102" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="C102" s="36" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="B103" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="C103" s="36" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="B104" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="C104" s="36" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="B105" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="C105" s="36" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="B106" s="35" t="s">
+        <v>451</v>
+      </c>
+      <c r="C106" s="36" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="B107" s="35" t="s">
+        <v>453</v>
+      </c>
+      <c r="C107" s="36" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="B108" s="35" t="s">
+        <v>455</v>
+      </c>
+      <c r="C108" s="36" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="B109" s="35" t="s">
+        <v>457</v>
+      </c>
+      <c r="C109" s="36" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="B110" s="35" t="s">
+        <v>459</v>
+      </c>
+      <c r="C110" s="36" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="B111" s="35" t="s">
+        <v>461</v>
+      </c>
+      <c r="C111" s="36" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="B112" s="35" t="s">
+        <v>463</v>
+      </c>
+      <c r="C112" s="36" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="B113" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="C113" s="38"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="B114" s="37" t="s">
+        <v>389</v>
+      </c>
+      <c r="C114" s="38"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="B115" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C115" s="38"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="B116" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="C116" s="38" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="B117" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="C117" s="38" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="B118" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="C118" s="38" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="39" t="s">
+        <v>472</v>
+      </c>
+      <c r="B119" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="C119" s="40" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="39" t="s">
+        <v>472</v>
+      </c>
+      <c r="B120" s="39" t="s">
+        <v>466</v>
+      </c>
+      <c r="C120" s="40" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="39" t="s">
+        <v>472</v>
+      </c>
+      <c r="B121" s="39" t="s">
+        <v>468</v>
+      </c>
+      <c r="C121" s="40" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="39" t="s">
+        <v>472</v>
+      </c>
+      <c r="B122" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="C122" s="40" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A123" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="B123" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="C123" s="42" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A124" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="B124" s="41" t="s">
+        <v>480</v>
+      </c>
+      <c r="C124" s="42" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A125" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="B125" s="41" t="s">
+        <v>482</v>
+      </c>
+      <c r="C125" s="42" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A126" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="B126" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="C126" s="42" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A127" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="B127" s="41" t="s">
+        <v>486</v>
+      </c>
+      <c r="C127" s="42" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A128" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="B128" s="41" t="s">
+        <v>488</v>
+      </c>
+      <c r="C128" s="42" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="25"/>
+      <c r="B129" s="25"/>
+      <c r="C129" s="25"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="25"/>
+      <c r="B130" s="25"/>
+      <c r="C130" s="25"/>
+    </row>
+    <row r="131" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A131" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="B131" s="25"/>
+      <c r="C131" s="25"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B132" s="25"/>
+      <c r="C132" s="25"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="B133" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="C133" s="43" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="44" t="s">
+        <v>492</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="44" t="s">
+        <v>495</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="44" t="s">
+        <v>498</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="44" t="s">
+        <v>504</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="44" t="s">
+        <v>507</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="44" t="s">
+        <v>510</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="44" t="s">
+        <v>516</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="44" t="s">
+        <v>525</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="5"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="25"/>
+      <c r="B147" s="25"/>
+      <c r="C147" s="25"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="25"/>
+      <c r="B148" s="25"/>
+      <c r="C148" s="25"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="25"/>
+      <c r="B149" s="25"/>
+      <c r="C149" s="25"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="25"/>
+      <c r="B150" s="25"/>
+      <c r="C150" s="25"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="25"/>
+      <c r="B151" s="25"/>
+      <c r="C151" s="25"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="25"/>
+      <c r="B152" s="25"/>
+      <c r="C152" s="25"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="25"/>
+      <c r="B153" s="25"/>
+      <c r="C153" s="25"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="25"/>
+      <c r="B154" s="25"/>
+      <c r="C154" s="25"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="25"/>
+      <c r="B155" s="25"/>
+      <c r="C155" s="25"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="25"/>
+      <c r="B156" s="25"/>
+      <c r="C156" s="25"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="25"/>
+      <c r="B157" s="25"/>
+      <c r="C157" s="25"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="25"/>
+      <c r="B158" s="25"/>
+      <c r="C158" s="25"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="25"/>
+      <c r="B159" s="25"/>
+      <c r="C159" s="25"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="25"/>
+      <c r="B160" s="25"/>
+      <c r="C160" s="25"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="25"/>
+      <c r="B161" s="25"/>
+      <c r="C161" s="25"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="25"/>
+      <c r="B162" s="25"/>
+      <c r="C162" s="25"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="25"/>
+      <c r="B163" s="25"/>
+      <c r="C163" s="25"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="25"/>
+      <c r="B164" s="25"/>
+      <c r="C164" s="25"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="25"/>
+      <c r="B165" s="25"/>
+      <c r="C165" s="25"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="25"/>
+      <c r="B166" s="25"/>
+      <c r="C166" s="25"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="25"/>
+      <c r="B167" s="25"/>
+      <c r="C167" s="25"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="25"/>
+      <c r="B168" s="25"/>
+      <c r="C168" s="25"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="25"/>
+      <c r="B169" s="25"/>
+      <c r="C169" s="25"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="25"/>
+      <c r="B170" s="25"/>
+      <c r="C170" s="25"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="25"/>
+      <c r="B171" s="25"/>
+      <c r="C171" s="25"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="25"/>
+      <c r="B172" s="25"/>
+      <c r="C172" s="25"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="25"/>
+      <c r="B173" s="25"/>
+      <c r="C173" s="25"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="25"/>
+      <c r="B174" s="25"/>
+      <c r="C174" s="25"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="25"/>
+      <c r="B175" s="25"/>
+      <c r="C175" s="25"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="25"/>
+      <c r="B176" s="25"/>
+      <c r="C176" s="25"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="25"/>
+      <c r="B177" s="25"/>
+      <c r="C177" s="25"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="25"/>
+      <c r="B178" s="25"/>
+      <c r="C178" s="25"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="25"/>
+      <c r="B179" s="25"/>
+      <c r="C179" s="25"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="25"/>
+      <c r="B180" s="25"/>
+      <c r="C180" s="25"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="25"/>
+      <c r="B181" s="25"/>
+      <c r="C181" s="25"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="25"/>
+      <c r="B182" s="25"/>
+      <c r="C182" s="25"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="25"/>
+      <c r="B183" s="25"/>
+      <c r="C183" s="25"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="25"/>
+      <c r="B184" s="25"/>
+      <c r="C184" s="25"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="25"/>
+      <c r="B185" s="25"/>
+      <c r="C185" s="25"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="25"/>
+      <c r="B186" s="25"/>
+      <c r="C186" s="25"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="25"/>
+      <c r="B187" s="25"/>
+      <c r="C187" s="25"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="25"/>
+      <c r="B188" s="25"/>
+      <c r="C188" s="25"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="25"/>
+      <c r="B189" s="25"/>
+      <c r="C189" s="25"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="25"/>
+      <c r="B190" s="25"/>
+      <c r="C190" s="25"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="25"/>
+      <c r="B191" s="25"/>
+      <c r="C191" s="25"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="25"/>
+      <c r="B192" s="25"/>
+      <c r="C192" s="25"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="25"/>
+      <c r="B193" s="25"/>
+      <c r="C193" s="25"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="25"/>
+      <c r="B194" s="25"/>
+      <c r="C194" s="25"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="25"/>
+      <c r="B195" s="25"/>
+      <c r="C195" s="25"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="25"/>
+      <c r="B196" s="25"/>
+      <c r="C196" s="25"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="25"/>
+      <c r="B197" s="25"/>
+      <c r="C197" s="25"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="25"/>
+      <c r="B198" s="25"/>
+      <c r="C198" s="25"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="25"/>
+      <c r="B199" s="25"/>
+      <c r="C199" s="25"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="25"/>
+      <c r="B200" s="25"/>
+      <c r="C200" s="25"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="25"/>
+      <c r="B201" s="25"/>
+      <c r="C201" s="25"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="25"/>
+      <c r="B202" s="25"/>
+      <c r="C202" s="25"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="25"/>
+      <c r="B203" s="25"/>
+      <c r="C203" s="25"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="25"/>
+      <c r="B204" s="25"/>
+      <c r="C204" s="25"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="25"/>
+      <c r="B205" s="25"/>
+      <c r="C205" s="25"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="25"/>
+      <c r="B206" s="25"/>
+      <c r="C206" s="25"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="25"/>
+      <c r="B207" s="25"/>
+      <c r="C207" s="25"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="25"/>
+      <c r="B208" s="25"/>
+      <c r="C208" s="25"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="25"/>
+      <c r="B209" s="25"/>
+      <c r="C209" s="25"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="25"/>
+      <c r="B210" s="25"/>
+      <c r="C210" s="25"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="25"/>
+      <c r="B211" s="25"/>
+      <c r="C211" s="25"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="25"/>
+      <c r="B212" s="25"/>
+      <c r="C212" s="25"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="25"/>
+      <c r="B213" s="25"/>
+      <c r="C213" s="25"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="25"/>
+      <c r="B214" s="25"/>
+      <c r="C214" s="25"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="25"/>
+      <c r="B215" s="25"/>
+      <c r="C215" s="25"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="25"/>
+      <c r="B216" s="25"/>
+      <c r="C216" s="25"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="25"/>
+      <c r="B217" s="25"/>
+      <c r="C217" s="25"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="25"/>
+      <c r="B218" s="25"/>
+      <c r="C218" s="25"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="25"/>
+      <c r="B219" s="25"/>
+      <c r="C219" s="25"/>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="25"/>
+      <c r="B220" s="25"/>
+      <c r="C220" s="25"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="25"/>
+      <c r="B221" s="25"/>
+      <c r="C221" s="25"/>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="25"/>
+      <c r="B222" s="25"/>
+      <c r="C222" s="25"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="25"/>
+      <c r="B223" s="25"/>
+      <c r="C223" s="25"/>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="25"/>
+      <c r="B224" s="25"/>
+      <c r="C224" s="25"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="25"/>
+      <c r="B225" s="25"/>
+      <c r="C225" s="25"/>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="25"/>
+      <c r="B226" s="25"/>
+      <c r="C226" s="25"/>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="25"/>
+      <c r="B227" s="25"/>
+      <c r="C227" s="25"/>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="25"/>
+      <c r="B228" s="25"/>
+      <c r="C228" s="25"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="25"/>
+      <c r="B229" s="25"/>
+      <c r="C229" s="25"/>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="25"/>
+      <c r="B230" s="25"/>
+      <c r="C230" s="25"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="25"/>
+      <c r="B231" s="25"/>
+      <c r="C231" s="25"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="25"/>
+      <c r="B232" s="25"/>
+      <c r="C232" s="25"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="25"/>
+      <c r="B233" s="25"/>
+      <c r="C233" s="25"/>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="25"/>
+      <c r="B234" s="25"/>
+      <c r="C234" s="25"/>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="25"/>
+      <c r="B235" s="25"/>
+      <c r="C235" s="25"/>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="25"/>
+      <c r="B236" s="25"/>
+      <c r="C236" s="25"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="25"/>
+      <c r="B237" s="25"/>
+      <c r="C237" s="25"/>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="25"/>
+      <c r="B238" s="25"/>
+      <c r="C238" s="25"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="25"/>
+      <c r="B239" s="25"/>
+      <c r="C239" s="25"/>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="25"/>
+      <c r="B240" s="25"/>
+      <c r="C240" s="25"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="25"/>
+      <c r="B241" s="25"/>
+      <c r="C241" s="25"/>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="25"/>
+      <c r="B242" s="25"/>
+      <c r="C242" s="25"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="25"/>
+      <c r="B243" s="25"/>
+      <c r="C243" s="25"/>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="25"/>
+      <c r="B244" s="25"/>
+      <c r="C244" s="25"/>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="25"/>
+      <c r="B245" s="25"/>
+      <c r="C245" s="25"/>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="25"/>
+      <c r="B246" s="25"/>
+      <c r="C246" s="25"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="25"/>
+      <c r="B247" s="25"/>
+      <c r="C247" s="25"/>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="25"/>
+      <c r="B248" s="25"/>
+      <c r="C248" s="25"/>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="25"/>
+      <c r="B249" s="25"/>
+      <c r="C249" s="25"/>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="25"/>
+      <c r="B250" s="25"/>
+      <c r="C250" s="25"/>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="25"/>
+      <c r="B251" s="25"/>
+      <c r="C251" s="25"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="25"/>
+      <c r="B252" s="25"/>
+      <c r="C252" s="25"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="25"/>
+      <c r="B253" s="25"/>
+      <c r="C253" s="25"/>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="25"/>
+      <c r="B254" s="25"/>
+      <c r="C254" s="25"/>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="25"/>
+      <c r="B255" s="25"/>
+      <c r="C255" s="25"/>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" s="25"/>
+      <c r="B256" s="25"/>
+      <c r="C256" s="25"/>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" s="25"/>
+      <c r="B257" s="25"/>
+      <c r="C257" s="25"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" s="25"/>
+      <c r="B258" s="25"/>
+      <c r="C258" s="25"/>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" s="25"/>
+      <c r="B259" s="25"/>
+      <c r="C259" s="25"/>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="25"/>
+      <c r="B260" s="25"/>
+      <c r="C260" s="25"/>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" s="25"/>
+      <c r="B261" s="25"/>
+      <c r="C261" s="25"/>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" s="25"/>
+      <c r="B262" s="25"/>
+      <c r="C262" s="25"/>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" s="25"/>
+      <c r="B263" s="25"/>
+      <c r="C263" s="25"/>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" s="25"/>
+      <c r="B264" s="25"/>
+      <c r="C264" s="25"/>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="25"/>
+      <c r="B265" s="25"/>
+      <c r="C265" s="25"/>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" s="25"/>
+      <c r="B266" s="25"/>
+      <c r="C266" s="25"/>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="25"/>
+      <c r="B267" s="25"/>
+      <c r="C267" s="25"/>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="25"/>
+      <c r="B268" s="25"/>
+      <c r="C268" s="25"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" s="25"/>
+      <c r="B269" s="25"/>
+      <c r="C269" s="25"/>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" s="25"/>
+      <c r="B270" s="25"/>
+      <c r="C270" s="25"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" s="25"/>
+      <c r="B271" s="25"/>
+      <c r="C271" s="25"/>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" s="25"/>
+      <c r="B272" s="25"/>
+      <c r="C272" s="25"/>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" s="25"/>
+      <c r="B273" s="25"/>
+      <c r="C273" s="25"/>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" s="25"/>
+      <c r="B274" s="25"/>
+      <c r="C274" s="25"/>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" s="25"/>
+      <c r="B275" s="25"/>
+      <c r="C275" s="25"/>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="25"/>
+      <c r="B276" s="25"/>
+      <c r="C276" s="25"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" s="25"/>
+      <c r="B277" s="25"/>
+      <c r="C277" s="25"/>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" s="25"/>
+      <c r="B278" s="25"/>
+      <c r="C278" s="25"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" s="25"/>
+      <c r="B279" s="25"/>
+      <c r="C279" s="25"/>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" s="25"/>
+      <c r="B280" s="25"/>
+      <c r="C280" s="25"/>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" s="25"/>
+      <c r="B281" s="25"/>
+      <c r="C281" s="25"/>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" s="25"/>
+      <c r="B282" s="25"/>
+      <c r="C282" s="25"/>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" s="25"/>
+      <c r="B283" s="25"/>
+      <c r="C283" s="25"/>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" s="25"/>
+      <c r="B284" s="25"/>
+      <c r="C284" s="25"/>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" s="25"/>
+      <c r="B285" s="25"/>
+      <c r="C285" s="25"/>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" s="25"/>
+      <c r="B286" s="25"/>
+      <c r="C286" s="25"/>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" s="25"/>
+      <c r="B287" s="25"/>
+      <c r="C287" s="25"/>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" s="25"/>
+      <c r="B288" s="25"/>
+      <c r="C288" s="25"/>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" s="25"/>
+      <c r="B289" s="25"/>
+      <c r="C289" s="25"/>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" s="25"/>
+      <c r="B290" s="25"/>
+      <c r="C290" s="25"/>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" s="25"/>
+      <c r="B291" s="25"/>
+      <c r="C291" s="25"/>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" s="25"/>
+      <c r="B292" s="25"/>
+      <c r="C292" s="25"/>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" s="25"/>
+      <c r="B293" s="25"/>
+      <c r="C293" s="25"/>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" s="25"/>
+      <c r="B294" s="25"/>
+      <c r="C294" s="25"/>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" s="25"/>
+      <c r="B295" s="25"/>
+      <c r="C295" s="25"/>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" s="25"/>
+      <c r="B296" s="25"/>
+      <c r="C296" s="25"/>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" s="25"/>
+      <c r="B297" s="25"/>
+      <c r="C297" s="25"/>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" s="25"/>
+      <c r="B298" s="25"/>
+      <c r="C298" s="25"/>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" s="25"/>
+      <c r="B299" s="25"/>
+      <c r="C299" s="25"/>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" s="25"/>
+      <c r="B300" s="25"/>
+      <c r="C300" s="25"/>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" s="25"/>
+      <c r="B301" s="25"/>
+      <c r="C301" s="25"/>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" s="25"/>
+      <c r="B302" s="25"/>
+      <c r="C302" s="25"/>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" s="25"/>
+      <c r="B303" s="25"/>
+      <c r="C303" s="25"/>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" s="25"/>
+      <c r="B304" s="25"/>
+      <c r="C304" s="25"/>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" s="25"/>
+      <c r="B305" s="25"/>
+      <c r="C305" s="25"/>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" s="25"/>
+      <c r="B306" s="25"/>
+      <c r="C306" s="25"/>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" s="25"/>
+      <c r="B307" s="25"/>
+      <c r="C307" s="25"/>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" s="25"/>
+      <c r="B308" s="25"/>
+      <c r="C308" s="25"/>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" s="25"/>
+      <c r="B309" s="25"/>
+      <c r="C309" s="25"/>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" s="25"/>
+      <c r="B310" s="25"/>
+      <c r="C310" s="25"/>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" s="25"/>
+      <c r="B311" s="25"/>
+      <c r="C311" s="25"/>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" s="25"/>
+      <c r="B312" s="25"/>
+      <c r="C312" s="25"/>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" s="25"/>
+      <c r="B313" s="25"/>
+      <c r="C313" s="25"/>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" s="25"/>
+      <c r="B314" s="25"/>
+      <c r="C314" s="25"/>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" s="25"/>
+      <c r="B315" s="25"/>
+      <c r="C315" s="25"/>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" s="25"/>
+      <c r="B316" s="25"/>
+      <c r="C316" s="25"/>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" s="25"/>
+      <c r="B317" s="25"/>
+      <c r="C317" s="25"/>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" s="25"/>
+      <c r="B318" s="25"/>
+      <c r="C318" s="25"/>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" s="25"/>
+      <c r="B319" s="25"/>
+      <c r="C319" s="25"/>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" s="25"/>
+      <c r="B320" s="25"/>
+      <c r="C320" s="25"/>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" s="25"/>
+      <c r="B321" s="25"/>
+      <c r="C321" s="25"/>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" s="25"/>
+      <c r="B322" s="25"/>
+      <c r="C322" s="25"/>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" s="25"/>
+      <c r="B323" s="25"/>
+      <c r="C323" s="25"/>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" s="25"/>
+      <c r="B324" s="25"/>
+      <c r="C324" s="25"/>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" s="25"/>
+      <c r="B325" s="25"/>
+      <c r="C325" s="25"/>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" s="25"/>
+      <c r="B326" s="25"/>
+      <c r="C326" s="25"/>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" s="25"/>
+      <c r="B327" s="25"/>
+      <c r="C327" s="25"/>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" s="25"/>
+      <c r="B328" s="25"/>
+      <c r="C328" s="25"/>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" s="25"/>
+      <c r="B329" s="25"/>
+      <c r="C329" s="25"/>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" s="25"/>
+      <c r="B330" s="25"/>
+      <c r="C330" s="25"/>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" s="25"/>
+      <c r="B331" s="25"/>
+      <c r="C331" s="25"/>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" s="25"/>
+      <c r="B332" s="25"/>
+      <c r="C332" s="25"/>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" s="25"/>
+      <c r="B333" s="25"/>
+      <c r="C333" s="25"/>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" s="25"/>
+      <c r="B334" s="25"/>
+      <c r="C334" s="25"/>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335" s="25"/>
+      <c r="B335" s="25"/>
+      <c r="C335" s="25"/>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" s="25"/>
+      <c r="B336" s="25"/>
+      <c r="C336" s="25"/>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" s="25"/>
+      <c r="B337" s="25"/>
+      <c r="C337" s="25"/>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338" s="25"/>
+      <c r="B338" s="25"/>
+      <c r="C338" s="25"/>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339" s="25"/>
+      <c r="B339" s="25"/>
+      <c r="C339" s="25"/>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" s="25"/>
+      <c r="B340" s="25"/>
+      <c r="C340" s="25"/>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341" s="25"/>
+      <c r="B341" s="25"/>
+      <c r="C341" s="25"/>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" s="25"/>
+      <c r="B342" s="25"/>
+      <c r="C342" s="25"/>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" s="25"/>
+      <c r="B343" s="25"/>
+      <c r="C343" s="25"/>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" s="25"/>
+      <c r="B344" s="25"/>
+      <c r="C344" s="25"/>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" s="25"/>
+      <c r="B345" s="25"/>
+      <c r="C345" s="25"/>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" s="25"/>
+      <c r="B346" s="25"/>
+      <c r="C346" s="25"/>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" s="25"/>
+      <c r="B347" s="25"/>
+      <c r="C347" s="25"/>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348" s="25"/>
+      <c r="B348" s="25"/>
+      <c r="C348" s="25"/>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349" s="25"/>
+      <c r="B349" s="25"/>
+      <c r="C349" s="25"/>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350" s="25"/>
+      <c r="B350" s="25"/>
+      <c r="C350" s="25"/>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A351" s="25"/>
+      <c r="B351" s="25"/>
+      <c r="C351" s="25"/>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352" s="25"/>
+      <c r="B352" s="25"/>
+      <c r="C352" s="25"/>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353" s="25"/>
+      <c r="B353" s="25"/>
+      <c r="C353" s="25"/>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354" s="25"/>
+      <c r="B354" s="25"/>
+      <c r="C354" s="25"/>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355" s="25"/>
+      <c r="B355" s="25"/>
+      <c r="C355" s="25"/>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356" s="25"/>
+      <c r="B356" s="25"/>
+      <c r="C356" s="25"/>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357" s="25"/>
+      <c r="B357" s="25"/>
+      <c r="C357" s="25"/>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358" s="25"/>
+      <c r="B358" s="25"/>
+      <c r="C358" s="25"/>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359" s="25"/>
+      <c r="B359" s="25"/>
+      <c r="C359" s="25"/>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360" s="25"/>
+      <c r="B360" s="25"/>
+      <c r="C360" s="25"/>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" s="25"/>
+      <c r="B361" s="25"/>
+      <c r="C361" s="25"/>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" s="25"/>
+      <c r="B362" s="25"/>
+      <c r="C362" s="25"/>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" s="25"/>
+      <c r="B363" s="25"/>
+      <c r="C363" s="25"/>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" s="25"/>
+      <c r="B364" s="25"/>
+      <c r="C364" s="25"/>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" s="25"/>
+      <c r="B365" s="25"/>
+      <c r="C365" s="25"/>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" s="25"/>
+      <c r="B366" s="25"/>
+      <c r="C366" s="25"/>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" s="25"/>
+      <c r="B367" s="25"/>
+      <c r="C367" s="25"/>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" s="25"/>
+      <c r="B368" s="25"/>
+      <c r="C368" s="25"/>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" s="25"/>
+      <c r="B369" s="25"/>
+      <c r="C369" s="25"/>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" s="25"/>
+      <c r="B370" s="25"/>
+      <c r="C370" s="25"/>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" s="25"/>
+      <c r="B371" s="25"/>
+      <c r="C371" s="25"/>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" s="25"/>
+      <c r="B372" s="25"/>
+      <c r="C372" s="25"/>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" s="25"/>
+      <c r="B373" s="25"/>
+      <c r="C373" s="25"/>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" s="25"/>
+      <c r="B374" s="25"/>
+      <c r="C374" s="25"/>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" s="25"/>
+      <c r="B375" s="25"/>
+      <c r="C375" s="25"/>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" s="25"/>
+      <c r="B376" s="25"/>
+      <c r="C376" s="25"/>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" s="25"/>
+      <c r="B377" s="25"/>
+      <c r="C377" s="25"/>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" s="25"/>
+      <c r="B378" s="25"/>
+      <c r="C378" s="25"/>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" s="25"/>
+      <c r="B379" s="25"/>
+      <c r="C379" s="25"/>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" s="25"/>
+      <c r="B380" s="25"/>
+      <c r="C380" s="25"/>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" s="25"/>
+      <c r="B381" s="25"/>
+      <c r="C381" s="25"/>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" s="25"/>
+      <c r="B382" s="25"/>
+      <c r="C382" s="25"/>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" s="25"/>
+      <c r="B383" s="25"/>
+      <c r="C383" s="25"/>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" s="25"/>
+      <c r="B384" s="25"/>
+      <c r="C384" s="25"/>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385" s="25"/>
+      <c r="B385" s="25"/>
+      <c r="C385" s="25"/>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386" s="25"/>
+      <c r="B386" s="25"/>
+      <c r="C386" s="25"/>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A387" s="25"/>
+      <c r="B387" s="25"/>
+      <c r="C387" s="25"/>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A388" s="25"/>
+      <c r="B388" s="25"/>
+      <c r="C388" s="25"/>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389" s="25"/>
+      <c r="B389" s="25"/>
+      <c r="C389" s="25"/>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390" s="25"/>
+      <c r="B390" s="25"/>
+      <c r="C390" s="25"/>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391" s="25"/>
+      <c r="B391" s="25"/>
+      <c r="C391" s="25"/>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392" s="25"/>
+      <c r="B392" s="25"/>
+      <c r="C392" s="25"/>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393" s="25"/>
+      <c r="B393" s="25"/>
+      <c r="C393" s="25"/>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394" s="25"/>
+      <c r="B394" s="25"/>
+      <c r="C394" s="25"/>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395" s="25"/>
+      <c r="B395" s="25"/>
+      <c r="C395" s="25"/>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396" s="25"/>
+      <c r="B396" s="25"/>
+      <c r="C396" s="25"/>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397" s="25"/>
+      <c r="B397" s="25"/>
+      <c r="C397" s="25"/>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398" s="25"/>
+      <c r="B398" s="25"/>
+      <c r="C398" s="25"/>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A399" s="25"/>
+      <c r="B399" s="25"/>
+      <c r="C399" s="25"/>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A400" s="25"/>
+      <c r="B400" s="25"/>
+      <c r="C400" s="25"/>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A401" s="25"/>
+      <c r="B401" s="25"/>
+      <c r="C401" s="25"/>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402" s="25"/>
+      <c r="B402" s="25"/>
+      <c r="C402" s="25"/>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403" s="25"/>
+      <c r="B403" s="25"/>
+      <c r="C403" s="25"/>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A404" s="25"/>
+      <c r="B404" s="25"/>
+      <c r="C404" s="25"/>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A405" s="25"/>
+      <c r="B405" s="25"/>
+      <c r="C405" s="25"/>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A406" s="25"/>
+      <c r="B406" s="25"/>
+      <c r="C406" s="25"/>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A407" s="25"/>
+      <c r="B407" s="25"/>
+      <c r="C407" s="25"/>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A408" s="25"/>
+      <c r="B408" s="25"/>
+      <c r="C408" s="25"/>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409" s="25"/>
+      <c r="B409" s="25"/>
+      <c r="C409" s="25"/>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410" s="25"/>
+      <c r="B410" s="25"/>
+      <c r="C410" s="25"/>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A411" s="25"/>
+      <c r="B411" s="25"/>
+      <c r="C411" s="25"/>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412" s="25"/>
+      <c r="B412" s="25"/>
+      <c r="C412" s="25"/>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A413" s="25"/>
+      <c r="B413" s="25"/>
+      <c r="C413" s="25"/>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414" s="25"/>
+      <c r="B414" s="25"/>
+      <c r="C414" s="25"/>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415" s="25"/>
+      <c r="B415" s="25"/>
+      <c r="C415" s="25"/>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416" s="25"/>
+      <c r="B416" s="25"/>
+      <c r="C416" s="25"/>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A417" s="25"/>
+      <c r="B417" s="25"/>
+      <c r="C417" s="25"/>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418" s="25"/>
+      <c r="B418" s="25"/>
+      <c r="C418" s="25"/>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A419" s="25"/>
+      <c r="B419" s="25"/>
+      <c r="C419" s="25"/>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A420" s="25"/>
+      <c r="B420" s="25"/>
+      <c r="C420" s="25"/>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421" s="25"/>
+      <c r="B421" s="25"/>
+      <c r="C421" s="25"/>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" s="25"/>
+      <c r="B422" s="25"/>
+      <c r="C422" s="25"/>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" s="25"/>
+      <c r="B423" s="25"/>
+      <c r="C423" s="25"/>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424" s="25"/>
+      <c r="B424" s="25"/>
+      <c r="C424" s="25"/>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425" s="25"/>
+      <c r="B425" s="25"/>
+      <c r="C425" s="25"/>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426" s="25"/>
+      <c r="B426" s="25"/>
+      <c r="C426" s="25"/>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A427" s="25"/>
+      <c r="B427" s="25"/>
+      <c r="C427" s="25"/>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A428" s="25"/>
+      <c r="B428" s="25"/>
+      <c r="C428" s="25"/>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A429" s="25"/>
+      <c r="B429" s="25"/>
+      <c r="C429" s="25"/>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A430" s="25"/>
+      <c r="B430" s="25"/>
+      <c r="C430" s="25"/>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A431" s="25"/>
+      <c r="B431" s="25"/>
+      <c r="C431" s="25"/>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432" s="25"/>
+      <c r="B432" s="25"/>
+      <c r="C432" s="25"/>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433" s="25"/>
+      <c r="B433" s="25"/>
+      <c r="C433" s="25"/>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434" s="25"/>
+      <c r="B434" s="25"/>
+      <c r="C434" s="25"/>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435" s="25"/>
+      <c r="B435" s="25"/>
+      <c r="C435" s="25"/>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436" s="25"/>
+      <c r="B436" s="25"/>
+      <c r="C436" s="25"/>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A437" s="25"/>
+      <c r="B437" s="25"/>
+      <c r="C437" s="25"/>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A438" s="25"/>
+      <c r="B438" s="25"/>
+      <c r="C438" s="25"/>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A439" s="25"/>
+      <c r="B439" s="25"/>
+      <c r="C439" s="25"/>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A440" s="25"/>
+      <c r="B440" s="25"/>
+      <c r="C440" s="25"/>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A441" s="25"/>
+      <c r="B441" s="25"/>
+      <c r="C441" s="25"/>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A442" s="25"/>
+      <c r="B442" s="25"/>
+      <c r="C442" s="25"/>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A443" s="25"/>
+      <c r="B443" s="25"/>
+      <c r="C443" s="25"/>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A444" s="25"/>
+      <c r="B444" s="25"/>
+      <c r="C444" s="25"/>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A445" s="25"/>
+      <c r="B445" s="25"/>
+      <c r="C445" s="25"/>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A446" s="25"/>
+      <c r="B446" s="25"/>
+      <c r="C446" s="25"/>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A447" s="25"/>
+      <c r="B447" s="25"/>
+      <c r="C447" s="25"/>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A448" s="25"/>
+      <c r="B448" s="25"/>
+      <c r="C448" s="25"/>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A449" s="25"/>
+      <c r="B449" s="25"/>
+      <c r="C449" s="25"/>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A450" s="25"/>
+      <c r="B450" s="25"/>
+      <c r="C450" s="25"/>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A451" s="25"/>
+      <c r="B451" s="25"/>
+      <c r="C451" s="25"/>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A452" s="25"/>
+      <c r="B452" s="25"/>
+      <c r="C452" s="25"/>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A453" s="25"/>
+      <c r="B453" s="25"/>
+      <c r="C453" s="25"/>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A454" s="25"/>
+      <c r="B454" s="25"/>
+      <c r="C454" s="25"/>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A455" s="25"/>
+      <c r="B455" s="25"/>
+      <c r="C455" s="25"/>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A456" s="25"/>
+      <c r="B456" s="25"/>
+      <c r="C456" s="25"/>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A457" s="25"/>
+      <c r="B457" s="25"/>
+      <c r="C457" s="25"/>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A458" s="25"/>
+      <c r="B458" s="25"/>
+      <c r="C458" s="25"/>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A459" s="25"/>
+      <c r="B459" s="25"/>
+      <c r="C459" s="25"/>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A460" s="25"/>
+      <c r="B460" s="25"/>
+      <c r="C460" s="25"/>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A461" s="25"/>
+      <c r="B461" s="25"/>
+      <c r="C461" s="25"/>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A462" s="25"/>
+      <c r="B462" s="25"/>
+      <c r="C462" s="25"/>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A463" s="25"/>
+      <c r="B463" s="25"/>
+      <c r="C463" s="25"/>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A464" s="25"/>
+      <c r="B464" s="25"/>
+      <c r="C464" s="25"/>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A465" s="25"/>
+      <c r="B465" s="25"/>
+      <c r="C465" s="25"/>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A466" s="25"/>
+      <c r="B466" s="25"/>
+      <c r="C466" s="25"/>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A467" s="25"/>
+      <c r="B467" s="25"/>
+      <c r="C467" s="25"/>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A468" s="25"/>
+      <c r="B468" s="25"/>
+      <c r="C468" s="25"/>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A469" s="25"/>
+      <c r="B469" s="25"/>
+      <c r="C469" s="25"/>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A470" s="25"/>
+      <c r="B470" s="25"/>
+      <c r="C470" s="25"/>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A471" s="25"/>
+      <c r="B471" s="25"/>
+      <c r="C471" s="25"/>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A472" s="25"/>
+      <c r="B472" s="25"/>
+      <c r="C472" s="25"/>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A473" s="25"/>
+      <c r="B473" s="25"/>
+      <c r="C473" s="25"/>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A474" s="25"/>
+      <c r="B474" s="25"/>
+      <c r="C474" s="25"/>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A475" s="25"/>
+      <c r="B475" s="25"/>
+      <c r="C475" s="25"/>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A476" s="25"/>
+      <c r="B476" s="25"/>
+      <c r="C476" s="25"/>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A477" s="25"/>
+      <c r="B477" s="25"/>
+      <c r="C477" s="25"/>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A478" s="25"/>
+      <c r="B478" s="25"/>
+      <c r="C478" s="25"/>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A479" s="25"/>
+      <c r="B479" s="25"/>
+      <c r="C479" s="25"/>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A480" s="25"/>
+      <c r="B480" s="25"/>
+      <c r="C480" s="25"/>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A481" s="25"/>
+      <c r="B481" s="25"/>
+      <c r="C481" s="25"/>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A482" s="25"/>
+      <c r="B482" s="25"/>
+      <c r="C482" s="25"/>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A483" s="25"/>
+      <c r="B483" s="25"/>
+      <c r="C483" s="25"/>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A484" s="25"/>
+      <c r="B484" s="25"/>
+      <c r="C484" s="25"/>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A485" s="25"/>
+      <c r="B485" s="25"/>
+      <c r="C485" s="25"/>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A486" s="25"/>
+      <c r="B486" s="25"/>
+      <c r="C486" s="25"/>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A487" s="25"/>
+      <c r="B487" s="25"/>
+      <c r="C487" s="25"/>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A488" s="25"/>
+      <c r="B488" s="25"/>
+      <c r="C488" s="25"/>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A489" s="25"/>
+      <c r="B489" s="25"/>
+      <c r="C489" s="25"/>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A490" s="25"/>
+      <c r="B490" s="25"/>
+      <c r="C490" s="25"/>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A491" s="25"/>
+      <c r="B491" s="25"/>
+      <c r="C491" s="25"/>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A492" s="25"/>
+      <c r="B492" s="25"/>
+      <c r="C492" s="25"/>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A493" s="25"/>
+      <c r="B493" s="25"/>
+      <c r="C493" s="25"/>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A494" s="25"/>
+      <c r="B494" s="25"/>
+      <c r="C494" s="25"/>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A495" s="25"/>
+      <c r="B495" s="25"/>
+      <c r="C495" s="25"/>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A496" s="25"/>
+      <c r="B496" s="25"/>
+      <c r="C496" s="25"/>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A497" s="25"/>
+      <c r="B497" s="25"/>
+      <c r="C497" s="25"/>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A498" s="25"/>
+      <c r="B498" s="25"/>
+      <c r="C498" s="25"/>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A499" s="25"/>
+      <c r="B499" s="25"/>
+      <c r="C499" s="25"/>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A500" s="25"/>
+      <c r="B500" s="25"/>
+      <c r="C500" s="25"/>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A501" s="25"/>
+      <c r="B501" s="25"/>
+      <c r="C501" s="25"/>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A502" s="25"/>
+      <c r="B502" s="25"/>
+      <c r="C502" s="25"/>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A503" s="25"/>
+      <c r="B503" s="25"/>
+      <c r="C503" s="25"/>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A504" s="25"/>
+      <c r="B504" s="25"/>
+      <c r="C504" s="25"/>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A505" s="25"/>
+      <c r="B505" s="25"/>
+      <c r="C505" s="25"/>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A506" s="25"/>
+      <c r="B506" s="25"/>
+      <c r="C506" s="25"/>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A507" s="25"/>
+      <c r="B507" s="25"/>
+      <c r="C507" s="25"/>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A508" s="25"/>
+      <c r="B508" s="25"/>
+      <c r="C508" s="25"/>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A509" s="25"/>
+      <c r="B509" s="25"/>
+      <c r="C509" s="25"/>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A510" s="25"/>
+      <c r="B510" s="25"/>
+      <c r="C510" s="25"/>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A511" s="25"/>
+      <c r="B511" s="25"/>
+      <c r="C511" s="25"/>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A512" s="25"/>
+      <c r="B512" s="25"/>
+      <c r="C512" s="25"/>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A513" s="25"/>
+      <c r="B513" s="25"/>
+      <c r="C513" s="25"/>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A514" s="25"/>
+      <c r="B514" s="25"/>
+      <c r="C514" s="25"/>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A515" s="25"/>
+      <c r="B515" s="25"/>
+      <c r="C515" s="25"/>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A516" s="25"/>
+      <c r="B516" s="25"/>
+      <c r="C516" s="25"/>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A517" s="25"/>
+      <c r="B517" s="25"/>
+      <c r="C517" s="25"/>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A518" s="25"/>
+      <c r="B518" s="25"/>
+      <c r="C518" s="25"/>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A519" s="25"/>
+      <c r="B519" s="25"/>
+      <c r="C519" s="25"/>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A520" s="25"/>
+      <c r="B520" s="25"/>
+      <c r="C520" s="25"/>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A521" s="25"/>
+      <c r="B521" s="25"/>
+      <c r="C521" s="25"/>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A522" s="25"/>
+      <c r="B522" s="25"/>
+      <c r="C522" s="25"/>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A523" s="25"/>
+      <c r="B523" s="25"/>
+      <c r="C523" s="25"/>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A524" s="25"/>
+      <c r="B524" s="25"/>
+      <c r="C524" s="25"/>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A525" s="25"/>
+      <c r="B525" s="25"/>
+      <c r="C525" s="25"/>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A526" s="25"/>
+      <c r="B526" s="25"/>
+      <c r="C526" s="25"/>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A527" s="25"/>
+      <c r="B527" s="25"/>
+      <c r="C527" s="25"/>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A528" s="25"/>
+      <c r="B528" s="25"/>
+      <c r="C528" s="25"/>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A529" s="25"/>
+      <c r="B529" s="25"/>
+      <c r="C529" s="25"/>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A530" s="25"/>
+      <c r="B530" s="25"/>
+      <c r="C530" s="25"/>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A531" s="25"/>
+      <c r="B531" s="25"/>
+      <c r="C531" s="25"/>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A532" s="25"/>
+      <c r="B532" s="25"/>
+      <c r="C532" s="25"/>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A533" s="25"/>
+      <c r="B533" s="25"/>
+      <c r="C533" s="25"/>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A534" s="25"/>
+      <c r="B534" s="25"/>
+      <c r="C534" s="25"/>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A535" s="25"/>
+      <c r="B535" s="25"/>
+      <c r="C535" s="25"/>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A536" s="25"/>
+      <c r="B536" s="25"/>
+      <c r="C536" s="25"/>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A537" s="25"/>
+      <c r="B537" s="25"/>
+      <c r="C537" s="25"/>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A538" s="25"/>
+      <c r="B538" s="25"/>
+      <c r="C538" s="25"/>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A539" s="25"/>
+      <c r="B539" s="25"/>
+      <c r="C539" s="25"/>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A540" s="25"/>
+      <c r="B540" s="25"/>
+      <c r="C540" s="25"/>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A541" s="25"/>
+      <c r="B541" s="25"/>
+      <c r="C541" s="25"/>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A542" s="25"/>
+      <c r="B542" s="25"/>
+      <c r="C542" s="25"/>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A543" s="25"/>
+      <c r="B543" s="25"/>
+      <c r="C543" s="25"/>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A544" s="25"/>
+      <c r="B544" s="25"/>
+      <c r="C544" s="25"/>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A545" s="25"/>
+      <c r="B545" s="25"/>
+      <c r="C545" s="25"/>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A546" s="25"/>
+      <c r="B546" s="25"/>
+      <c r="C546" s="25"/>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A547" s="25"/>
+      <c r="B547" s="25"/>
+      <c r="C547" s="25"/>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A548" s="25"/>
+      <c r="B548" s="25"/>
+      <c r="C548" s="25"/>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A549" s="25"/>
+      <c r="B549" s="25"/>
+      <c r="C549" s="25"/>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A550" s="25"/>
+      <c r="B550" s="25"/>
+      <c r="C550" s="25"/>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A551" s="25"/>
+      <c r="B551" s="25"/>
+      <c r="C551" s="25"/>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A552" s="25"/>
+      <c r="B552" s="25"/>
+      <c r="C552" s="25"/>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A553" s="25"/>
+      <c r="B553" s="25"/>
+      <c r="C553" s="25"/>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A554" s="25"/>
+      <c r="B554" s="25"/>
+      <c r="C554" s="25"/>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A555" s="25"/>
+      <c r="B555" s="25"/>
+      <c r="C555" s="25"/>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A556" s="25"/>
+      <c r="B556" s="25"/>
+      <c r="C556" s="25"/>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A557" s="25"/>
+      <c r="B557" s="25"/>
+      <c r="C557" s="25"/>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A558" s="25"/>
+      <c r="B558" s="25"/>
+      <c r="C558" s="25"/>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A559" s="25"/>
+      <c r="B559" s="25"/>
+      <c r="C559" s="25"/>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A560" s="25"/>
+      <c r="B560" s="25"/>
+      <c r="C560" s="25"/>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A561" s="25"/>
+      <c r="B561" s="25"/>
+      <c r="C561" s="25"/>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A562" s="25"/>
+      <c r="B562" s="25"/>
+      <c r="C562" s="25"/>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A563" s="25"/>
+      <c r="B563" s="25"/>
+      <c r="C563" s="25"/>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A564" s="25"/>
+      <c r="B564" s="25"/>
+      <c r="C564" s="25"/>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A565" s="25"/>
+      <c r="B565" s="25"/>
+      <c r="C565" s="25"/>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A566" s="25"/>
+      <c r="B566" s="25"/>
+      <c r="C566" s="25"/>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A567" s="25"/>
+      <c r="B567" s="25"/>
+      <c r="C567" s="25"/>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A568" s="25"/>
+      <c r="B568" s="25"/>
+      <c r="C568" s="25"/>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A569" s="25"/>
+      <c r="B569" s="25"/>
+      <c r="C569" s="25"/>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A570" s="25"/>
+      <c r="B570" s="25"/>
+      <c r="C570" s="25"/>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A571" s="25"/>
+      <c r="B571" s="25"/>
+      <c r="C571" s="25"/>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A572" s="25"/>
+      <c r="B572" s="25"/>
+      <c r="C572" s="25"/>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A573" s="25"/>
+      <c r="B573" s="25"/>
+      <c r="C573" s="25"/>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A574" s="25"/>
+      <c r="B574" s="25"/>
+      <c r="C574" s="25"/>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A575" s="25"/>
+      <c r="B575" s="25"/>
+      <c r="C575" s="25"/>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A576" s="25"/>
+      <c r="B576" s="25"/>
+      <c r="C576" s="25"/>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A577" s="25"/>
+      <c r="B577" s="25"/>
+      <c r="C577" s="25"/>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A578" s="25"/>
+      <c r="B578" s="25"/>
+      <c r="C578" s="25"/>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A579" s="25"/>
+      <c r="B579" s="25"/>
+      <c r="C579" s="25"/>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A580" s="25"/>
+      <c r="B580" s="25"/>
+      <c r="C580" s="25"/>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A581" s="25"/>
+      <c r="B581" s="25"/>
+      <c r="C581" s="25"/>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A582" s="25"/>
+      <c r="B582" s="25"/>
+      <c r="C582" s="25"/>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A583" s="25"/>
+      <c r="B583" s="25"/>
+      <c r="C583" s="25"/>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A584" s="25"/>
+      <c r="B584" s="25"/>
+      <c r="C584" s="25"/>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A585" s="25"/>
+      <c r="B585" s="25"/>
+      <c r="C585" s="25"/>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A586" s="25"/>
+      <c r="B586" s="25"/>
+      <c r="C586" s="25"/>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A587" s="25"/>
+      <c r="B587" s="25"/>
+      <c r="C587" s="25"/>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A588" s="25"/>
+      <c r="B588" s="25"/>
+      <c r="C588" s="25"/>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A589" s="25"/>
+      <c r="B589" s="25"/>
+      <c r="C589" s="25"/>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A590" s="25"/>
+      <c r="B590" s="25"/>
+      <c r="C590" s="25"/>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A591" s="25"/>
+      <c r="B591" s="25"/>
+      <c r="C591" s="25"/>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A592" s="25"/>
+      <c r="B592" s="25"/>
+      <c r="C592" s="25"/>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A593" s="25"/>
+      <c r="B593" s="25"/>
+      <c r="C593" s="25"/>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A594" s="25"/>
+      <c r="B594" s="25"/>
+      <c r="C594" s="25"/>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A595" s="25"/>
+      <c r="B595" s="25"/>
+      <c r="C595" s="25"/>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A596" s="25"/>
+      <c r="B596" s="25"/>
+      <c r="C596" s="25"/>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A597" s="25"/>
+      <c r="B597" s="25"/>
+      <c r="C597" s="25"/>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A598" s="25"/>
+      <c r="B598" s="25"/>
+      <c r="C598" s="25"/>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A599" s="25"/>
+      <c r="B599" s="25"/>
+      <c r="C599" s="25"/>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A600" s="25"/>
+      <c r="B600" s="25"/>
+      <c r="C600" s="25"/>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A601" s="25"/>
+      <c r="B601" s="25"/>
+      <c r="C601" s="25"/>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A602" s="25"/>
+      <c r="B602" s="25"/>
+      <c r="C602" s="25"/>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A603" s="25"/>
+      <c r="B603" s="25"/>
+      <c r="C603" s="25"/>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A604" s="25"/>
+      <c r="B604" s="25"/>
+      <c r="C604" s="25"/>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A605" s="25"/>
+      <c r="B605" s="25"/>
+      <c r="C605" s="25"/>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A606" s="25"/>
+      <c r="B606" s="25"/>
+      <c r="C606" s="25"/>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A607" s="25"/>
+      <c r="B607" s="25"/>
+      <c r="C607" s="25"/>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A608" s="25"/>
+      <c r="B608" s="25"/>
+      <c r="C608" s="25"/>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A609" s="25"/>
+      <c r="B609" s="25"/>
+      <c r="C609" s="25"/>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A610" s="25"/>
+      <c r="B610" s="25"/>
+      <c r="C610" s="25"/>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A611" s="25"/>
+      <c r="B611" s="25"/>
+      <c r="C611" s="25"/>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A612" s="25"/>
+      <c r="B612" s="25"/>
+      <c r="C612" s="25"/>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A613" s="25"/>
+      <c r="B613" s="25"/>
+      <c r="C613" s="25"/>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A614" s="25"/>
+      <c r="B614" s="25"/>
+      <c r="C614" s="25"/>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A615" s="25"/>
+      <c r="B615" s="25"/>
+      <c r="C615" s="25"/>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A616" s="25"/>
+      <c r="B616" s="25"/>
+      <c r="C616" s="25"/>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A617" s="25"/>
+      <c r="B617" s="25"/>
+      <c r="C617" s="25"/>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A618" s="25"/>
+      <c r="B618" s="25"/>
+      <c r="C618" s="25"/>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A619" s="25"/>
+      <c r="B619" s="25"/>
+      <c r="C619" s="25"/>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A620" s="25"/>
+      <c r="B620" s="25"/>
+      <c r="C620" s="25"/>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A621" s="25"/>
+      <c r="B621" s="25"/>
+      <c r="C621" s="25"/>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A622" s="25"/>
+      <c r="B622" s="25"/>
+      <c r="C622" s="25"/>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A623" s="25"/>
+      <c r="B623" s="25"/>
+      <c r="C623" s="25"/>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A624" s="25"/>
+      <c r="B624" s="25"/>
+      <c r="C624" s="25"/>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A625" s="25"/>
+      <c r="B625" s="25"/>
+      <c r="C625" s="25"/>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A626" s="25"/>
+      <c r="B626" s="25"/>
+      <c r="C626" s="25"/>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A627" s="25"/>
+      <c r="B627" s="25"/>
+      <c r="C627" s="25"/>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A628" s="25"/>
+      <c r="B628" s="25"/>
+      <c r="C628" s="25"/>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A629" s="25"/>
+      <c r="B629" s="25"/>
+      <c r="C629" s="25"/>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A630" s="25"/>
+      <c r="B630" s="25"/>
+      <c r="C630" s="25"/>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A631" s="25"/>
+      <c r="B631" s="25"/>
+      <c r="C631" s="25"/>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A632" s="25"/>
+      <c r="B632" s="25"/>
+      <c r="C632" s="25"/>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A633" s="25"/>
+      <c r="B633" s="25"/>
+      <c r="C633" s="25"/>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A634" s="25"/>
+      <c r="B634" s="25"/>
+      <c r="C634" s="25"/>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A635" s="25"/>
+      <c r="B635" s="25"/>
+      <c r="C635" s="25"/>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A636" s="25"/>
+      <c r="B636" s="25"/>
+      <c r="C636" s="25"/>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A637" s="25"/>
+      <c r="B637" s="25"/>
+      <c r="C637" s="25"/>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A638" s="25"/>
+      <c r="B638" s="25"/>
+      <c r="C638" s="25"/>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A639" s="25"/>
+      <c r="B639" s="25"/>
+      <c r="C639" s="25"/>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A640" s="25"/>
+      <c r="B640" s="25"/>
+      <c r="C640" s="25"/>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A641" s="25"/>
+      <c r="B641" s="25"/>
+      <c r="C641" s="25"/>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A642" s="25"/>
+      <c r="B642" s="25"/>
+      <c r="C642" s="25"/>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A643" s="25"/>
+      <c r="B643" s="25"/>
+      <c r="C643" s="25"/>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A644" s="25"/>
+      <c r="B644" s="25"/>
+      <c r="C644" s="25"/>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A645" s="25"/>
+      <c r="B645" s="25"/>
+      <c r="C645" s="25"/>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A646" s="25"/>
+      <c r="B646" s="25"/>
+      <c r="C646" s="25"/>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A647" s="25"/>
+      <c r="B647" s="25"/>
+      <c r="C647" s="25"/>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A648" s="25"/>
+      <c r="B648" s="25"/>
+      <c r="C648" s="25"/>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A649" s="25"/>
+      <c r="B649" s="25"/>
+      <c r="C649" s="25"/>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A650" s="25"/>
+      <c r="B650" s="25"/>
+      <c r="C650" s="25"/>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A651" s="25"/>
+      <c r="B651" s="25"/>
+      <c r="C651" s="25"/>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A652" s="25"/>
+      <c r="B652" s="25"/>
+      <c r="C652" s="25"/>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A653" s="25"/>
+      <c r="B653" s="25"/>
+      <c r="C653" s="25"/>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A654" s="25"/>
+      <c r="B654" s="25"/>
+      <c r="C654" s="25"/>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A655" s="25"/>
+      <c r="B655" s="25"/>
+      <c r="C655" s="25"/>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A656" s="25"/>
+      <c r="B656" s="25"/>
+      <c r="C656" s="25"/>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A657" s="25"/>
+      <c r="B657" s="25"/>
+      <c r="C657" s="25"/>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A658" s="25"/>
+      <c r="B658" s="25"/>
+      <c r="C658" s="25"/>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A659" s="25"/>
+      <c r="B659" s="25"/>
+      <c r="C659" s="25"/>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A660" s="25"/>
+      <c r="B660" s="25"/>
+      <c r="C660" s="25"/>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A661" s="25"/>
+      <c r="B661" s="25"/>
+      <c r="C661" s="25"/>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A662" s="25"/>
+      <c r="B662" s="25"/>
+      <c r="C662" s="25"/>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A663" s="25"/>
+      <c r="B663" s="25"/>
+      <c r="C663" s="25"/>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A664" s="25"/>
+      <c r="B664" s="25"/>
+      <c r="C664" s="25"/>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A665" s="25"/>
+      <c r="B665" s="25"/>
+      <c r="C665" s="25"/>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A666" s="25"/>
+      <c r="B666" s="25"/>
+      <c r="C666" s="25"/>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A667" s="25"/>
+      <c r="B667" s="25"/>
+      <c r="C667" s="25"/>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A668" s="25"/>
+      <c r="B668" s="25"/>
+      <c r="C668" s="25"/>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A669" s="25"/>
+      <c r="B669" s="25"/>
+      <c r="C669" s="25"/>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A670" s="25"/>
+      <c r="B670" s="25"/>
+      <c r="C670" s="25"/>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A671" s="25"/>
+      <c r="B671" s="25"/>
+      <c r="C671" s="25"/>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A672" s="25"/>
+      <c r="B672" s="25"/>
+      <c r="C672" s="25"/>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A673" s="25"/>
+      <c r="B673" s="25"/>
+      <c r="C673" s="25"/>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A674" s="25"/>
+      <c r="B674" s="25"/>
+      <c r="C674" s="25"/>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A675" s="25"/>
+      <c r="B675" s="25"/>
+      <c r="C675" s="25"/>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A676" s="25"/>
+      <c r="B676" s="25"/>
+      <c r="C676" s="25"/>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A677" s="25"/>
+      <c r="B677" s="25"/>
+      <c r="C677" s="25"/>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A678" s="25"/>
+      <c r="B678" s="25"/>
+      <c r="C678" s="25"/>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A679" s="25"/>
+      <c r="B679" s="25"/>
+      <c r="C679" s="25"/>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A680" s="25"/>
+      <c r="B680" s="25"/>
+      <c r="C680" s="25"/>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A681" s="25"/>
+      <c r="B681" s="25"/>
+      <c r="C681" s="25"/>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A682" s="25"/>
+      <c r="B682" s="25"/>
+      <c r="C682" s="25"/>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A683" s="25"/>
+      <c r="B683" s="25"/>
+      <c r="C683" s="25"/>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A684" s="25"/>
+      <c r="B684" s="25"/>
+      <c r="C684" s="25"/>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A685" s="25"/>
+      <c r="B685" s="25"/>
+      <c r="C685" s="25"/>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A686" s="25"/>
+      <c r="B686" s="25"/>
+      <c r="C686" s="25"/>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A687" s="25"/>
+      <c r="B687" s="25"/>
+      <c r="C687" s="25"/>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A688" s="25"/>
+      <c r="B688" s="25"/>
+      <c r="C688" s="25"/>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A689" s="25"/>
+      <c r="B689" s="25"/>
+      <c r="C689" s="25"/>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A690" s="25"/>
+      <c r="B690" s="25"/>
+      <c r="C690" s="25"/>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A691" s="25"/>
+      <c r="B691" s="25"/>
+      <c r="C691" s="25"/>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A692" s="25"/>
+      <c r="B692" s="25"/>
+      <c r="C692" s="25"/>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A693" s="25"/>
+      <c r="B693" s="25"/>
+      <c r="C693" s="25"/>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A694" s="25"/>
+      <c r="B694" s="25"/>
+      <c r="C694" s="25"/>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A695" s="25"/>
+      <c r="B695" s="25"/>
+      <c r="C695" s="25"/>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A696" s="25"/>
+      <c r="B696" s="25"/>
+      <c r="C696" s="25"/>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A697" s="25"/>
+      <c r="B697" s="25"/>
+      <c r="C697" s="25"/>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A698" s="25"/>
+      <c r="B698" s="25"/>
+      <c r="C698" s="25"/>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A699" s="25"/>
+      <c r="B699" s="25"/>
+      <c r="C699" s="25"/>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A700" s="25"/>
+      <c r="B700" s="25"/>
+      <c r="C700" s="25"/>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A701" s="25"/>
+      <c r="B701" s="25"/>
+      <c r="C701" s="25"/>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A702" s="25"/>
+      <c r="B702" s="25"/>
+      <c r="C702" s="25"/>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A703" s="25"/>
+      <c r="B703" s="25"/>
+      <c r="C703" s="25"/>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A704" s="25"/>
+      <c r="B704" s="25"/>
+      <c r="C704" s="25"/>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A705" s="25"/>
+      <c r="B705" s="25"/>
+      <c r="C705" s="25"/>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A706" s="25"/>
+      <c r="B706" s="25"/>
+      <c r="C706" s="25"/>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A707" s="25"/>
+      <c r="B707" s="25"/>
+      <c r="C707" s="25"/>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A708" s="25"/>
+      <c r="B708" s="25"/>
+      <c r="C708" s="25"/>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A709" s="25"/>
+      <c r="B709" s="25"/>
+      <c r="C709" s="25"/>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A710" s="25"/>
+      <c r="B710" s="25"/>
+      <c r="C710" s="25"/>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A711" s="25"/>
+      <c r="B711" s="25"/>
+      <c r="C711" s="25"/>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A712" s="25"/>
+      <c r="B712" s="25"/>
+      <c r="C712" s="25"/>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A713" s="25"/>
+      <c r="B713" s="25"/>
+      <c r="C713" s="25"/>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A714" s="25"/>
+      <c r="B714" s="25"/>
+      <c r="C714" s="25"/>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A715" s="25"/>
+      <c r="B715" s="25"/>
+      <c r="C715" s="25"/>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A716" s="25"/>
+      <c r="B716" s="25"/>
+      <c r="C716" s="25"/>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A717" s="25"/>
+      <c r="B717" s="25"/>
+      <c r="C717" s="25"/>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A718" s="25"/>
+      <c r="B718" s="25"/>
+      <c r="C718" s="25"/>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A719" s="25"/>
+      <c r="B719" s="25"/>
+      <c r="C719" s="25"/>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A720" s="25"/>
+      <c r="B720" s="25"/>
+      <c r="C720" s="25"/>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A721" s="25"/>
+      <c r="B721" s="25"/>
+      <c r="C721" s="25"/>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A722" s="25"/>
+      <c r="B722" s="25"/>
+      <c r="C722" s="25"/>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A723" s="25"/>
+      <c r="B723" s="25"/>
+      <c r="C723" s="25"/>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A724" s="25"/>
+      <c r="B724" s="25"/>
+      <c r="C724" s="25"/>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A725" s="25"/>
+      <c r="B725" s="25"/>
+      <c r="C725" s="25"/>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A726" s="25"/>
+      <c r="B726" s="25"/>
+      <c r="C726" s="25"/>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A727" s="25"/>
+      <c r="B727" s="25"/>
+      <c r="C727" s="25"/>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A728" s="25"/>
+      <c r="B728" s="25"/>
+      <c r="C728" s="25"/>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A729" s="25"/>
+      <c r="B729" s="25"/>
+      <c r="C729" s="25"/>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A730" s="25"/>
+      <c r="B730" s="25"/>
+      <c r="C730" s="25"/>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A731" s="25"/>
+      <c r="B731" s="25"/>
+      <c r="C731" s="25"/>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A732" s="25"/>
+      <c r="B732" s="25"/>
+      <c r="C732" s="25"/>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A733" s="25"/>
+      <c r="B733" s="25"/>
+      <c r="C733" s="25"/>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A734" s="25"/>
+      <c r="B734" s="25"/>
+      <c r="C734" s="25"/>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A735" s="25"/>
+      <c r="B735" s="25"/>
+      <c r="C735" s="25"/>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A736" s="25"/>
+      <c r="B736" s="25"/>
+      <c r="C736" s="25"/>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A737" s="25"/>
+      <c r="B737" s="25"/>
+      <c r="C737" s="25"/>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A738" s="25"/>
+      <c r="B738" s="25"/>
+      <c r="C738" s="25"/>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A739" s="25"/>
+      <c r="B739" s="25"/>
+      <c r="C739" s="25"/>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A740" s="25"/>
+      <c r="B740" s="25"/>
+      <c r="C740" s="25"/>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A741" s="25"/>
+      <c r="B741" s="25"/>
+      <c r="C741" s="25"/>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A742" s="25"/>
+      <c r="B742" s="25"/>
+      <c r="C742" s="25"/>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A743" s="25"/>
+      <c r="B743" s="25"/>
+      <c r="C743" s="25"/>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A744" s="25"/>
+      <c r="B744" s="25"/>
+      <c r="C744" s="25"/>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A745" s="25"/>
+      <c r="B745" s="25"/>
+      <c r="C745" s="25"/>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A746" s="25"/>
+      <c r="B746" s="25"/>
+      <c r="C746" s="25"/>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A747" s="25"/>
+      <c r="B747" s="25"/>
+      <c r="C747" s="25"/>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A748" s="25"/>
+      <c r="B748" s="25"/>
+      <c r="C748" s="25"/>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A749" s="25"/>
+      <c r="B749" s="25"/>
+      <c r="C749" s="25"/>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A750" s="25"/>
+      <c r="B750" s="25"/>
+      <c r="C750" s="25"/>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A751" s="25"/>
+      <c r="B751" s="25"/>
+      <c r="C751" s="25"/>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A752" s="25"/>
+      <c r="B752" s="25"/>
+      <c r="C752" s="25"/>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A753" s="25"/>
+      <c r="B753" s="25"/>
+      <c r="C753" s="25"/>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A754" s="25"/>
+      <c r="B754" s="25"/>
+      <c r="C754" s="25"/>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A755" s="25"/>
+      <c r="B755" s="25"/>
+      <c r="C755" s="25"/>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A756" s="25"/>
+      <c r="B756" s="25"/>
+      <c r="C756" s="25"/>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A757" s="25"/>
+      <c r="B757" s="25"/>
+      <c r="C757" s="25"/>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A758" s="25"/>
+      <c r="B758" s="25"/>
+      <c r="C758" s="25"/>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A759" s="25"/>
+      <c r="B759" s="25"/>
+      <c r="C759" s="25"/>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A760" s="25"/>
+      <c r="B760" s="25"/>
+      <c r="C760" s="25"/>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A761" s="25"/>
+      <c r="B761" s="25"/>
+      <c r="C761" s="25"/>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A762" s="25"/>
+      <c r="B762" s="25"/>
+      <c r="C762" s="25"/>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A763" s="25"/>
+      <c r="B763" s="25"/>
+      <c r="C763" s="25"/>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A764" s="25"/>
+      <c r="B764" s="25"/>
+      <c r="C764" s="25"/>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A765" s="25"/>
+      <c r="B765" s="25"/>
+      <c r="C765" s="25"/>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A766" s="25"/>
+      <c r="B766" s="25"/>
+      <c r="C766" s="25"/>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A767" s="25"/>
+      <c r="B767" s="25"/>
+      <c r="C767" s="25"/>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A768" s="25"/>
+      <c r="B768" s="25"/>
+      <c r="C768" s="25"/>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A769" s="25"/>
+      <c r="B769" s="25"/>
+      <c r="C769" s="25"/>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A770" s="25"/>
+      <c r="B770" s="25"/>
+      <c r="C770" s="25"/>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A771" s="25"/>
+      <c r="B771" s="25"/>
+      <c r="C771" s="25"/>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A772" s="25"/>
+      <c r="B772" s="25"/>
+      <c r="C772" s="25"/>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A773" s="25"/>
+      <c r="B773" s="25"/>
+      <c r="C773" s="25"/>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A774" s="25"/>
+      <c r="B774" s="25"/>
+      <c r="C774" s="25"/>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A775" s="25"/>
+      <c r="B775" s="25"/>
+      <c r="C775" s="25"/>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A776" s="25"/>
+      <c r="B776" s="25"/>
+      <c r="C776" s="25"/>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A777" s="25"/>
+      <c r="B777" s="25"/>
+      <c r="C777" s="25"/>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A778" s="25"/>
+      <c r="B778" s="25"/>
+      <c r="C778" s="25"/>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A779" s="25"/>
+      <c r="B779" s="25"/>
+      <c r="C779" s="25"/>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A780" s="25"/>
+      <c r="B780" s="25"/>
+      <c r="C780" s="25"/>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A781" s="25"/>
+      <c r="B781" s="25"/>
+      <c r="C781" s="25"/>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A782" s="25"/>
+      <c r="B782" s="25"/>
+      <c r="C782" s="25"/>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A783" s="25"/>
+      <c r="B783" s="25"/>
+      <c r="C783" s="25"/>
+    </row>
+    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A784" s="25"/>
+      <c r="B784" s="25"/>
+      <c r="C784" s="25"/>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A785" s="25"/>
+      <c r="B785" s="25"/>
+      <c r="C785" s="25"/>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A786" s="25"/>
+      <c r="B786" s="25"/>
+      <c r="C786" s="25"/>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A787" s="25"/>
+      <c r="B787" s="25"/>
+      <c r="C787" s="25"/>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A788" s="25"/>
+      <c r="B788" s="25"/>
+      <c r="C788" s="25"/>
+    </row>
+    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A789" s="25"/>
+      <c r="B789" s="25"/>
+      <c r="C789" s="25"/>
+    </row>
+    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A790" s="25"/>
+      <c r="B790" s="25"/>
+      <c r="C790" s="25"/>
+    </row>
+    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A791" s="25"/>
+      <c r="B791" s="25"/>
+      <c r="C791" s="25"/>
+    </row>
+    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A792" s="25"/>
+      <c r="B792" s="25"/>
+      <c r="C792" s="25"/>
+    </row>
+    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A793" s="25"/>
+      <c r="B793" s="25"/>
+      <c r="C793" s="25"/>
+    </row>
+    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A794" s="25"/>
+      <c r="B794" s="25"/>
+      <c r="C794" s="25"/>
+    </row>
+    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A795" s="25"/>
+      <c r="B795" s="25"/>
+      <c r="C795" s="25"/>
+    </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A796" s="25"/>
+      <c r="B796" s="25"/>
+      <c r="C796" s="25"/>
+    </row>
+    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A797" s="25"/>
+      <c r="B797" s="25"/>
+      <c r="C797" s="25"/>
+    </row>
+    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A798" s="25"/>
+      <c r="B798" s="25"/>
+      <c r="C798" s="25"/>
+    </row>
+    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A799" s="25"/>
+      <c r="B799" s="25"/>
+      <c r="C799" s="25"/>
+    </row>
+    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A800" s="25"/>
+      <c r="B800" s="25"/>
+      <c r="C800" s="25"/>
+    </row>
+    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A801" s="25"/>
+      <c r="B801" s="25"/>
+      <c r="C801" s="25"/>
+    </row>
+    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A802" s="25"/>
+      <c r="B802" s="25"/>
+      <c r="C802" s="25"/>
+    </row>
+    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A803" s="25"/>
+      <c r="B803" s="25"/>
+      <c r="C803" s="25"/>
+    </row>
+    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A804" s="25"/>
+      <c r="B804" s="25"/>
+      <c r="C804" s="25"/>
+    </row>
+    <row r="805" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A805" s="25"/>
+      <c r="B805" s="25"/>
+      <c r="C805" s="25"/>
+    </row>
+    <row r="806" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A806" s="25"/>
+      <c r="B806" s="25"/>
+      <c r="C806" s="25"/>
+    </row>
+    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A807" s="25"/>
+      <c r="B807" s="25"/>
+      <c r="C807" s="25"/>
+    </row>
+    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A808" s="25"/>
+      <c r="B808" s="25"/>
+      <c r="C808" s="25"/>
+    </row>
+    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A809" s="25"/>
+      <c r="B809" s="25"/>
+      <c r="C809" s="25"/>
+    </row>
+    <row r="810" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A810" s="25"/>
+      <c r="B810" s="25"/>
+      <c r="C810" s="25"/>
+    </row>
+    <row r="811" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A811" s="25"/>
+      <c r="B811" s="25"/>
+      <c r="C811" s="25"/>
+    </row>
+    <row r="812" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A812" s="25"/>
+      <c r="B812" s="25"/>
+      <c r="C812" s="25"/>
+    </row>
+    <row r="813" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A813" s="25"/>
+      <c r="B813" s="25"/>
+      <c r="C813" s="25"/>
+    </row>
+    <row r="814" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A814" s="25"/>
+      <c r="B814" s="25"/>
+      <c r="C814" s="25"/>
+    </row>
+    <row r="815" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A815" s="25"/>
+      <c r="B815" s="25"/>
+      <c r="C815" s="25"/>
+    </row>
+    <row r="816" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A816" s="25"/>
+      <c r="B816" s="25"/>
+      <c r="C816" s="25"/>
+    </row>
+    <row r="817" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A817" s="25"/>
+      <c r="B817" s="25"/>
+      <c r="C817" s="25"/>
+    </row>
+    <row r="818" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A818" s="25"/>
+      <c r="B818" s="25"/>
+      <c r="C818" s="25"/>
+    </row>
+    <row r="819" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A819" s="25"/>
+      <c r="B819" s="25"/>
+      <c r="C819" s="25"/>
+    </row>
+    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A820" s="25"/>
+      <c r="B820" s="25"/>
+      <c r="C820" s="25"/>
+    </row>
+    <row r="821" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A821" s="25"/>
+      <c r="B821" s="25"/>
+      <c r="C821" s="25"/>
+    </row>
+    <row r="822" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A822" s="25"/>
+      <c r="B822" s="25"/>
+      <c r="C822" s="25"/>
+    </row>
+    <row r="823" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A823" s="25"/>
+      <c r="B823" s="25"/>
+      <c r="C823" s="25"/>
+    </row>
+    <row r="824" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A824" s="25"/>
+      <c r="B824" s="25"/>
+      <c r="C824" s="25"/>
+    </row>
+    <row r="825" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A825" s="25"/>
+      <c r="B825" s="25"/>
+      <c r="C825" s="25"/>
+    </row>
+    <row r="826" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A826" s="25"/>
+      <c r="B826" s="25"/>
+      <c r="C826" s="25"/>
+    </row>
+    <row r="827" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A827" s="25"/>
+      <c r="B827" s="25"/>
+      <c r="C827" s="25"/>
+    </row>
+    <row r="828" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A828" s="25"/>
+      <c r="B828" s="25"/>
+      <c r="C828" s="25"/>
+    </row>
+    <row r="829" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A829" s="25"/>
+      <c r="B829" s="25"/>
+      <c r="C829" s="25"/>
+    </row>
+    <row r="830" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A830" s="25"/>
+      <c r="B830" s="25"/>
+      <c r="C830" s="25"/>
+    </row>
+    <row r="831" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A831" s="25"/>
+      <c r="B831" s="25"/>
+      <c r="C831" s="25"/>
+    </row>
+    <row r="832" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A832" s="25"/>
+      <c r="B832" s="25"/>
+      <c r="C832" s="25"/>
+    </row>
+    <row r="833" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A833" s="25"/>
+      <c r="B833" s="25"/>
+      <c r="C833" s="25"/>
+    </row>
+    <row r="834" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A834" s="25"/>
+      <c r="B834" s="25"/>
+      <c r="C834" s="25"/>
+    </row>
+    <row r="835" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A835" s="25"/>
+      <c r="B835" s="25"/>
+      <c r="C835" s="25"/>
+    </row>
+    <row r="836" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A836" s="25"/>
+      <c r="B836" s="25"/>
+      <c r="C836" s="25"/>
+    </row>
+    <row r="837" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A837" s="25"/>
+      <c r="B837" s="25"/>
+      <c r="C837" s="25"/>
+    </row>
+    <row r="838" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A838" s="25"/>
+      <c r="B838" s="25"/>
+      <c r="C838" s="25"/>
+    </row>
+    <row r="839" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A839" s="25"/>
+      <c r="B839" s="25"/>
+      <c r="C839" s="25"/>
+    </row>
+    <row r="840" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A840" s="25"/>
+      <c r="B840" s="25"/>
+      <c r="C840" s="25"/>
+    </row>
+    <row r="841" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A841" s="25"/>
+      <c r="B841" s="25"/>
+      <c r="C841" s="25"/>
+    </row>
+    <row r="842" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A842" s="25"/>
+      <c r="B842" s="25"/>
+      <c r="C842" s="25"/>
+    </row>
+    <row r="843" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A843" s="25"/>
+      <c r="B843" s="25"/>
+      <c r="C843" s="25"/>
+    </row>
+    <row r="844" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A844" s="25"/>
+      <c r="B844" s="25"/>
+      <c r="C844" s="25"/>
+    </row>
+    <row r="845" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A845" s="25"/>
+      <c r="B845" s="25"/>
+      <c r="C845" s="25"/>
+    </row>
+    <row r="846" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A846" s="25"/>
+      <c r="B846" s="25"/>
+      <c r="C846" s="25"/>
+    </row>
+    <row r="847" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A847" s="25"/>
+      <c r="B847" s="25"/>
+      <c r="C847" s="25"/>
+    </row>
+    <row r="848" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A848" s="25"/>
+      <c r="B848" s="25"/>
+      <c r="C848" s="25"/>
+    </row>
+    <row r="849" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A849" s="25"/>
+      <c r="B849" s="25"/>
+      <c r="C849" s="25"/>
+    </row>
+    <row r="850" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A850" s="25"/>
+      <c r="B850" s="25"/>
+      <c r="C850" s="25"/>
+    </row>
+    <row r="851" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A851" s="25"/>
+      <c r="B851" s="25"/>
+      <c r="C851" s="25"/>
+    </row>
+    <row r="852" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A852" s="25"/>
+      <c r="B852" s="25"/>
+      <c r="C852" s="25"/>
+    </row>
+    <row r="853" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A853" s="25"/>
+      <c r="B853" s="25"/>
+      <c r="C853" s="25"/>
+    </row>
+    <row r="854" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A854" s="25"/>
+      <c r="B854" s="25"/>
+      <c r="C854" s="25"/>
+    </row>
+    <row r="855" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A855" s="25"/>
+      <c r="B855" s="25"/>
+      <c r="C855" s="25"/>
+    </row>
+    <row r="856" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A856" s="25"/>
+      <c r="B856" s="25"/>
+      <c r="C856" s="25"/>
+    </row>
+    <row r="857" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A857" s="25"/>
+      <c r="B857" s="25"/>
+      <c r="C857" s="25"/>
+    </row>
+    <row r="858" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A858" s="25"/>
+      <c r="B858" s="25"/>
+      <c r="C858" s="25"/>
+    </row>
+    <row r="859" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A859" s="25"/>
+      <c r="B859" s="25"/>
+      <c r="C859" s="25"/>
+    </row>
+    <row r="860" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A860" s="25"/>
+      <c r="B860" s="25"/>
+      <c r="C860" s="25"/>
+    </row>
+    <row r="861" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A861" s="25"/>
+      <c r="B861" s="25"/>
+      <c r="C861" s="25"/>
+    </row>
+    <row r="862" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A862" s="25"/>
+      <c r="B862" s="25"/>
+      <c r="C862" s="25"/>
+    </row>
+    <row r="863" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A863" s="25"/>
+      <c r="B863" s="25"/>
+      <c r="C863" s="25"/>
+    </row>
+    <row r="864" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A864" s="25"/>
+      <c r="B864" s="25"/>
+      <c r="C864" s="25"/>
+    </row>
+    <row r="865" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A865" s="25"/>
+      <c r="B865" s="25"/>
+      <c r="C865" s="25"/>
+    </row>
+    <row r="866" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A866" s="25"/>
+      <c r="B866" s="25"/>
+      <c r="C866" s="25"/>
+    </row>
+    <row r="867" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A867" s="25"/>
+      <c r="B867" s="25"/>
+      <c r="C867" s="25"/>
+    </row>
+    <row r="868" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A868" s="25"/>
+      <c r="B868" s="25"/>
+      <c r="C868" s="25"/>
+    </row>
+    <row r="869" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A869" s="25"/>
+      <c r="B869" s="25"/>
+      <c r="C869" s="25"/>
+    </row>
+    <row r="870" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A870" s="25"/>
+      <c r="B870" s="25"/>
+      <c r="C870" s="25"/>
+    </row>
+    <row r="871" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A871" s="25"/>
+      <c r="B871" s="25"/>
+      <c r="C871" s="25"/>
+    </row>
+    <row r="872" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A872" s="25"/>
+      <c r="B872" s="25"/>
+      <c r="C872" s="25"/>
+    </row>
+    <row r="873" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A873" s="25"/>
+      <c r="B873" s="25"/>
+      <c r="C873" s="25"/>
+    </row>
+    <row r="874" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A874" s="25"/>
+      <c r="B874" s="25"/>
+      <c r="C874" s="25"/>
+    </row>
+    <row r="875" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A875" s="25"/>
+      <c r="B875" s="25"/>
+      <c r="C875" s="25"/>
+    </row>
+    <row r="876" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A876" s="25"/>
+      <c r="B876" s="25"/>
+      <c r="C876" s="25"/>
+    </row>
+    <row r="877" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A877" s="25"/>
+      <c r="B877" s="25"/>
+      <c r="C877" s="25"/>
+    </row>
+    <row r="878" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A878" s="25"/>
+      <c r="B878" s="25"/>
+      <c r="C878" s="25"/>
+    </row>
+    <row r="879" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A879" s="25"/>
+      <c r="B879" s="25"/>
+      <c r="C879" s="25"/>
+    </row>
+    <row r="880" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A880" s="25"/>
+      <c r="B880" s="25"/>
+      <c r="C880" s="25"/>
+    </row>
+    <row r="881" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A881" s="25"/>
+      <c r="B881" s="25"/>
+      <c r="C881" s="25"/>
+    </row>
+    <row r="882" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A882" s="25"/>
+      <c r="B882" s="25"/>
+      <c r="C882" s="25"/>
+    </row>
+    <row r="883" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A883" s="25"/>
+      <c r="B883" s="25"/>
+      <c r="C883" s="25"/>
+    </row>
+    <row r="884" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A884" s="25"/>
+      <c r="B884" s="25"/>
+      <c r="C884" s="25"/>
+    </row>
+    <row r="885" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A885" s="25"/>
+      <c r="B885" s="25"/>
+      <c r="C885" s="25"/>
+    </row>
+    <row r="886" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A886" s="25"/>
+      <c r="B886" s="25"/>
+      <c r="C886" s="25"/>
+    </row>
+    <row r="887" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A887" s="25"/>
+      <c r="B887" s="25"/>
+      <c r="C887" s="25"/>
+    </row>
+    <row r="888" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A888" s="25"/>
+      <c r="B888" s="25"/>
+      <c r="C888" s="25"/>
+    </row>
+    <row r="889" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A889" s="25"/>
+      <c r="B889" s="25"/>
+      <c r="C889" s="25"/>
+    </row>
+    <row r="890" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A890" s="25"/>
+      <c r="B890" s="25"/>
+      <c r="C890" s="25"/>
+    </row>
+    <row r="891" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A891" s="25"/>
+      <c r="B891" s="25"/>
+      <c r="C891" s="25"/>
+    </row>
+    <row r="892" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A892" s="25"/>
+      <c r="B892" s="25"/>
+      <c r="C892" s="25"/>
+    </row>
+    <row r="893" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A893" s="25"/>
+      <c r="B893" s="25"/>
+      <c r="C893" s="25"/>
+    </row>
+    <row r="894" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A894" s="25"/>
+      <c r="B894" s="25"/>
+      <c r="C894" s="25"/>
+    </row>
+    <row r="895" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A895" s="25"/>
+      <c r="B895" s="25"/>
+      <c r="C895" s="25"/>
+    </row>
+    <row r="896" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A896" s="25"/>
+      <c r="B896" s="25"/>
+      <c r="C896" s="25"/>
+    </row>
+    <row r="897" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A897" s="25"/>
+      <c r="B897" s="25"/>
+      <c r="C897" s="25"/>
+    </row>
+    <row r="898" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A898" s="25"/>
+      <c r="B898" s="25"/>
+      <c r="C898" s="25"/>
+    </row>
+    <row r="899" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A899" s="25"/>
+      <c r="B899" s="25"/>
+      <c r="C899" s="25"/>
+    </row>
+    <row r="900" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A900" s="25"/>
+      <c r="B900" s="25"/>
+      <c r="C900" s="25"/>
+    </row>
+    <row r="901" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A901" s="25"/>
+      <c r="B901" s="25"/>
+      <c r="C901" s="25"/>
+    </row>
+    <row r="902" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A902" s="25"/>
+      <c r="B902" s="25"/>
+      <c r="C902" s="25"/>
+    </row>
+    <row r="903" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A903" s="25"/>
+      <c r="B903" s="25"/>
+      <c r="C903" s="25"/>
+    </row>
+    <row r="904" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A904" s="25"/>
+      <c r="B904" s="25"/>
+      <c r="C904" s="25"/>
+    </row>
+    <row r="905" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A905" s="25"/>
+      <c r="B905" s="25"/>
+      <c r="C905" s="25"/>
+    </row>
+    <row r="906" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A906" s="25"/>
+      <c r="B906" s="25"/>
+      <c r="C906" s="25"/>
+    </row>
+    <row r="907" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A907" s="25"/>
+      <c r="B907" s="25"/>
+      <c r="C907" s="25"/>
+    </row>
+    <row r="908" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A908" s="25"/>
+      <c r="B908" s="25"/>
+      <c r="C908" s="25"/>
+    </row>
+    <row r="909" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A909" s="25"/>
+      <c r="B909" s="25"/>
+      <c r="C909" s="25"/>
+    </row>
+    <row r="910" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A910" s="25"/>
+      <c r="B910" s="25"/>
+      <c r="C910" s="25"/>
+    </row>
+    <row r="911" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A911" s="25"/>
+      <c r="B911" s="25"/>
+      <c r="C911" s="25"/>
+    </row>
+    <row r="912" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A912" s="25"/>
+      <c r="B912" s="25"/>
+      <c r="C912" s="25"/>
+    </row>
+    <row r="913" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A913" s="25"/>
+      <c r="B913" s="25"/>
+      <c r="C913" s="25"/>
+    </row>
+    <row r="914" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A914" s="25"/>
+      <c r="B914" s="25"/>
+      <c r="C914" s="25"/>
+    </row>
+    <row r="915" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A915" s="25"/>
+      <c r="B915" s="25"/>
+      <c r="C915" s="25"/>
+    </row>
+    <row r="916" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A916" s="25"/>
+      <c r="B916" s="25"/>
+      <c r="C916" s="25"/>
+    </row>
+    <row r="917" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A917" s="25"/>
+      <c r="B917" s="25"/>
+      <c r="C917" s="25"/>
+    </row>
+    <row r="918" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A918" s="25"/>
+      <c r="B918" s="25"/>
+      <c r="C918" s="25"/>
+    </row>
+    <row r="919" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A919" s="25"/>
+      <c r="B919" s="25"/>
+      <c r="C919" s="25"/>
+    </row>
+    <row r="920" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A920" s="25"/>
+      <c r="B920" s="25"/>
+      <c r="C920" s="25"/>
+    </row>
+    <row r="921" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A921" s="25"/>
+      <c r="B921" s="25"/>
+      <c r="C921" s="25"/>
+    </row>
+    <row r="922" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A922" s="25"/>
+      <c r="B922" s="25"/>
+      <c r="C922" s="25"/>
+    </row>
+    <row r="923" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A923" s="25"/>
+      <c r="B923" s="25"/>
+      <c r="C923" s="25"/>
+    </row>
+    <row r="924" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A924" s="25"/>
+      <c r="B924" s="25"/>
+      <c r="C924" s="25"/>
+    </row>
+    <row r="925" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A925" s="25"/>
+      <c r="B925" s="25"/>
+      <c r="C925" s="25"/>
+    </row>
+    <row r="926" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A926" s="25"/>
+      <c r="B926" s="25"/>
+      <c r="C926" s="25"/>
+    </row>
+    <row r="927" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A927" s="25"/>
+      <c r="B927" s="25"/>
+      <c r="C927" s="25"/>
+    </row>
+    <row r="928" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A928" s="25"/>
+      <c r="B928" s="25"/>
+      <c r="C928" s="25"/>
+    </row>
+    <row r="929" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A929" s="25"/>
+      <c r="B929" s="25"/>
+      <c r="C929" s="25"/>
+    </row>
+    <row r="930" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A930" s="25"/>
+      <c r="B930" s="25"/>
+      <c r="C930" s="25"/>
+    </row>
+    <row r="931" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A931" s="25"/>
+      <c r="B931" s="25"/>
+      <c r="C931" s="25"/>
+    </row>
+    <row r="932" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A932" s="25"/>
+      <c r="B932" s="25"/>
+      <c r="C932" s="25"/>
+    </row>
+    <row r="933" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A933" s="25"/>
+      <c r="B933" s="25"/>
+      <c r="C933" s="25"/>
+    </row>
+    <row r="934" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A934" s="25"/>
+      <c r="B934" s="25"/>
+      <c r="C934" s="25"/>
+    </row>
+    <row r="935" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A935" s="25"/>
+      <c r="B935" s="25"/>
+      <c r="C935" s="25"/>
+    </row>
+    <row r="936" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A936" s="25"/>
+      <c r="B936" s="25"/>
+      <c r="C936" s="25"/>
+    </row>
+    <row r="937" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A937" s="25"/>
+      <c r="B937" s="25"/>
+      <c r="C937" s="25"/>
+    </row>
+    <row r="938" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A938" s="25"/>
+      <c r="B938" s="25"/>
+      <c r="C938" s="25"/>
+    </row>
+    <row r="939" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A939" s="25"/>
+      <c r="B939" s="25"/>
+      <c r="C939" s="25"/>
+    </row>
+    <row r="940" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A940" s="25"/>
+      <c r="B940" s="25"/>
+      <c r="C940" s="25"/>
+    </row>
+    <row r="941" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A941" s="25"/>
+      <c r="B941" s="25"/>
+      <c r="C941" s="25"/>
+    </row>
+    <row r="942" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A942" s="25"/>
+      <c r="B942" s="25"/>
+      <c r="C942" s="25"/>
+    </row>
+    <row r="943" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A943" s="25"/>
+      <c r="B943" s="25"/>
+      <c r="C943" s="25"/>
+    </row>
+    <row r="944" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A944" s="25"/>
+      <c r="B944" s="25"/>
+      <c r="C944" s="25"/>
+    </row>
+    <row r="945" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A945" s="25"/>
+      <c r="B945" s="25"/>
+      <c r="C945" s="25"/>
+    </row>
+    <row r="946" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A946" s="25"/>
+      <c r="B946" s="25"/>
+      <c r="C946" s="25"/>
+    </row>
+    <row r="947" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A947" s="25"/>
+      <c r="B947" s="25"/>
+      <c r="C947" s="25"/>
+    </row>
+    <row r="948" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A948" s="25"/>
+      <c r="B948" s="25"/>
+      <c r="C948" s="25"/>
+    </row>
+    <row r="949" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A949" s="25"/>
+      <c r="B949" s="25"/>
+      <c r="C949" s="25"/>
+    </row>
+    <row r="950" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A950" s="25"/>
+      <c r="B950" s="25"/>
+      <c r="C950" s="25"/>
+    </row>
+    <row r="951" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A951" s="25"/>
+      <c r="B951" s="25"/>
+      <c r="C951" s="25"/>
+    </row>
+    <row r="952" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A952" s="25"/>
+      <c r="B952" s="25"/>
+      <c r="C952" s="25"/>
+    </row>
+    <row r="953" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A953" s="25"/>
+      <c r="B953" s="25"/>
+      <c r="C953" s="25"/>
+    </row>
+    <row r="954" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A954" s="25"/>
+      <c r="B954" s="25"/>
+      <c r="C954" s="25"/>
+    </row>
+    <row r="955" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A955" s="25"/>
+      <c r="B955" s="25"/>
+      <c r="C955" s="25"/>
+    </row>
+    <row r="956" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A956" s="25"/>
+      <c r="B956" s="25"/>
+      <c r="C956" s="25"/>
+    </row>
+    <row r="957" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A957" s="25"/>
+      <c r="B957" s="25"/>
+      <c r="C957" s="25"/>
+    </row>
+    <row r="958" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A958" s="25"/>
+      <c r="B958" s="25"/>
+      <c r="C958" s="25"/>
+    </row>
+    <row r="959" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A959" s="25"/>
+      <c r="B959" s="25"/>
+      <c r="C959" s="25"/>
+    </row>
+    <row r="960" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A960" s="25"/>
+      <c r="B960" s="25"/>
+      <c r="C960" s="25"/>
+    </row>
+    <row r="961" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A961" s="25"/>
+      <c r="B961" s="25"/>
+      <c r="C961" s="25"/>
+    </row>
+    <row r="962" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A962" s="25"/>
+      <c r="B962" s="25"/>
+      <c r="C962" s="25"/>
+    </row>
+    <row r="963" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A963" s="25"/>
+      <c r="B963" s="25"/>
+      <c r="C963" s="25"/>
+    </row>
+    <row r="964" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A964" s="25"/>
+      <c r="B964" s="25"/>
+      <c r="C964" s="25"/>
+    </row>
+    <row r="965" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A965" s="25"/>
+      <c r="B965" s="25"/>
+      <c r="C965" s="25"/>
+    </row>
+    <row r="966" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A966" s="25"/>
+      <c r="B966" s="25"/>
+      <c r="C966" s="25"/>
+    </row>
+    <row r="967" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A967" s="25"/>
+      <c r="B967" s="25"/>
+      <c r="C967" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/inst/application/www/Output_Selection_template.xlsx
+++ b/inst/application/www/Output_Selection_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BenoitThieurmel\Documents\git\antaresVizMedTSO\inst\application\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8237B4-BEB8-460A-AF04-CE7AAC96C3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F381CB5-0924-43C7-A5CF-7ADB9265EF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{D77C83E6-B695-4B37-B3DE-F053925C20A4}"/>
   </bookViews>
@@ -1599,19 +1599,10 @@
     <t>Compute only on AVM. Pump Storage - Open Loop (pump)</t>
   </si>
   <si>
-    <t>PSP_closed</t>
-  </si>
-  <si>
     <t>Compute only on AVM. Pump Storage - Closed Loop (net)</t>
   </si>
   <si>
-    <t>PSP_closed_POS</t>
-  </si>
-  <si>
     <t>Compute only on AVM. Pump Storage - Closed Loop (turbine)</t>
-  </si>
-  <si>
-    <t>PSP_closed_NEG</t>
   </si>
   <si>
     <t>Compute only on AVM. Pump Storage - Closed Loop (pump)</t>
@@ -1970,6 +1961,15 @@
   </si>
   <si>
     <t>abs(sum(`FLOW LIN.`[`FLOW LIN.` &lt; 0])) / 1000</t>
+  </si>
+  <si>
+    <t>PSP_Closed</t>
+  </si>
+  <si>
+    <t>PSP_Closed_POS</t>
+  </si>
+  <si>
+    <t>PSP_Closed_NEG</t>
   </si>
 </sst>
 </file>
@@ -5334,8 +5334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB13B925-451C-45FB-9F07-41556F0CA947}">
   <dimension ref="A1:BB967"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7515,10 +7515,10 @@
         <v>320</v>
       </c>
       <c r="B84" s="33" t="s">
+        <v>525</v>
+      </c>
+      <c r="C84" s="34" t="s">
         <v>406</v>
-      </c>
-      <c r="C84" s="34" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -7526,10 +7526,10 @@
         <v>320</v>
       </c>
       <c r="B85" s="33" t="s">
-        <v>408</v>
+        <v>526</v>
       </c>
       <c r="C85" s="34" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -7537,10 +7537,10 @@
         <v>320</v>
       </c>
       <c r="B86" s="33" t="s">
-        <v>410</v>
+        <v>527</v>
       </c>
       <c r="C86" s="34" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -7548,10 +7548,10 @@
         <v>320</v>
       </c>
       <c r="B87" s="33" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C87" s="34" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -7559,10 +7559,10 @@
         <v>320</v>
       </c>
       <c r="B88" s="33" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -7570,10 +7570,10 @@
         <v>320</v>
       </c>
       <c r="B89" s="33" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -7581,10 +7581,10 @@
         <v>320</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C90" s="34" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -7592,10 +7592,10 @@
         <v>320</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C91" s="34" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -7603,10 +7603,10 @@
         <v>320</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -7614,10 +7614,10 @@
         <v>320</v>
       </c>
       <c r="B93" s="33" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C93" s="34" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -7625,10 +7625,10 @@
         <v>320</v>
       </c>
       <c r="B94" s="33" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C94" s="34" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -7636,10 +7636,10 @@
         <v>320</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C95" s="34" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -7647,10 +7647,10 @@
         <v>320</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C96" s="34" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -7658,10 +7658,10 @@
         <v>320</v>
       </c>
       <c r="B97" s="33" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -7669,10 +7669,10 @@
         <v>320</v>
       </c>
       <c r="B98" s="33" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -7680,10 +7680,10 @@
         <v>320</v>
       </c>
       <c r="B99" s="33" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C99" s="34" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -7691,10 +7691,10 @@
         <v>320</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -7702,136 +7702,136 @@
         <v>320</v>
       </c>
       <c r="B101" s="33" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C101" s="34" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="35" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C102" s="36" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="B103" s="35" t="s">
         <v>442</v>
       </c>
-      <c r="B103" s="35" t="s">
-        <v>445</v>
-      </c>
       <c r="C103" s="36" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="35" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B104" s="35" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C104" s="36" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="35" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B105" s="35" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C105" s="36" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="35" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C106" s="36" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="35" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B107" s="35" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C107" s="36" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="35" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B108" s="35" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C108" s="36" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="35" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B109" s="35" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C109" s="36" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="35" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B110" s="35" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C110" s="36" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="35" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B111" s="35" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C111" s="36" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="35" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B112" s="35" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C112" s="36" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="37" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B113" s="37" t="s">
         <v>255</v>
@@ -7840,7 +7840,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="37" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B114" s="37" t="s">
         <v>389</v>
@@ -7849,7 +7849,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="37" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B115" s="37" t="s">
         <v>221</v>
@@ -7858,145 +7858,145 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="37" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B116" s="37" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C116" s="38" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="37" t="s">
+        <v>462</v>
+      </c>
+      <c r="B117" s="37" t="s">
         <v>465</v>
       </c>
-      <c r="B117" s="37" t="s">
-        <v>468</v>
-      </c>
       <c r="C117" s="38" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="37" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B118" s="37" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C118" s="38" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="39" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B119" s="39" t="s">
         <v>255</v>
       </c>
       <c r="C119" s="40" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="39" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B120" s="39" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C120" s="40" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="B121" s="39" t="s">
+        <v>465</v>
+      </c>
+      <c r="C121" s="40" t="s">
         <v>472</v>
-      </c>
-      <c r="B121" s="39" t="s">
-        <v>468</v>
-      </c>
-      <c r="C121" s="40" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="39" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B122" s="39" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C122" s="40" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="41" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B123" s="41" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C123" s="42" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A124" s="41" t="s">
+        <v>474</v>
+      </c>
+      <c r="B124" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="B124" s="41" t="s">
-        <v>480</v>
-      </c>
       <c r="C124" s="42" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="41" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B125" s="41" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C125" s="42" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="41" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B126" s="41" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C126" s="42" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A127" s="41" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B127" s="41" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C127" s="42" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A128" s="41" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B128" s="41" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C128" s="42" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -8011,7 +8011,7 @@
     </row>
     <row r="131" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A131" s="23" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B131" s="25"/>
       <c r="C131" s="25"/>
@@ -8028,139 +8028,139 @@
         <v>319</v>
       </c>
       <c r="C133" s="43" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="44" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="44" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="44" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="44" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="44" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="44" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="44" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="44" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="44" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="44" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="44" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="44" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
